--- a/2/1/UF-IVP diaria 1984 - Diaria.xlsx
+++ b/2/1/UF-IVP diaria 1984 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="368">
   <si>
     <t>Serie</t>
   </si>
@@ -25,1102 +25,1099 @@
     <t>Indice de valor promedio (IVP)</t>
   </si>
   <si>
-    <t>01-01-1984</t>
-  </si>
-  <si>
-    <t>02-01-1984</t>
-  </si>
-  <si>
-    <t>03-01-1984</t>
-  </si>
-  <si>
-    <t>04-01-1984</t>
-  </si>
-  <si>
-    <t>05-01-1984</t>
-  </si>
-  <si>
-    <t>06-01-1984</t>
-  </si>
-  <si>
-    <t>07-01-1984</t>
-  </si>
-  <si>
-    <t>08-01-1984</t>
-  </si>
-  <si>
-    <t>09-01-1984</t>
-  </si>
-  <si>
-    <t>10-01-1984</t>
-  </si>
-  <si>
-    <t>11-01-1984</t>
-  </si>
-  <si>
-    <t>12-01-1984</t>
-  </si>
-  <si>
-    <t>13-01-1984</t>
-  </si>
-  <si>
-    <t>14-01-1984</t>
-  </si>
-  <si>
-    <t>15-01-1984</t>
-  </si>
-  <si>
-    <t>16-01-1984</t>
-  </si>
-  <si>
-    <t>17-01-1984</t>
-  </si>
-  <si>
-    <t>18-01-1984</t>
-  </si>
-  <si>
-    <t>19-01-1984</t>
-  </si>
-  <si>
-    <t>20-01-1984</t>
-  </si>
-  <si>
-    <t>21-01-1984</t>
-  </si>
-  <si>
-    <t>22-01-1984</t>
-  </si>
-  <si>
-    <t>23-01-1984</t>
-  </si>
-  <si>
-    <t>24-01-1984</t>
-  </si>
-  <si>
-    <t>25-01-1984</t>
-  </si>
-  <si>
-    <t>26-01-1984</t>
-  </si>
-  <si>
-    <t>27-01-1984</t>
-  </si>
-  <si>
-    <t>28-01-1984</t>
-  </si>
-  <si>
-    <t>29-01-1984</t>
-  </si>
-  <si>
-    <t>30-01-1984</t>
-  </si>
-  <si>
-    <t>31-01-1984</t>
-  </si>
-  <si>
-    <t>01-02-1984</t>
-  </si>
-  <si>
-    <t>02-02-1984</t>
-  </si>
-  <si>
-    <t>03-02-1984</t>
-  </si>
-  <si>
-    <t>04-02-1984</t>
-  </si>
-  <si>
-    <t>05-02-1984</t>
-  </si>
-  <si>
-    <t>06-02-1984</t>
-  </si>
-  <si>
-    <t>07-02-1984</t>
-  </si>
-  <si>
-    <t>08-02-1984</t>
-  </si>
-  <si>
-    <t>09-02-1984</t>
-  </si>
-  <si>
-    <t>10-02-1984</t>
-  </si>
-  <si>
-    <t>11-02-1984</t>
-  </si>
-  <si>
-    <t>12-02-1984</t>
-  </si>
-  <si>
-    <t>13-02-1984</t>
-  </si>
-  <si>
-    <t>14-02-1984</t>
-  </si>
-  <si>
-    <t>15-02-1984</t>
-  </si>
-  <si>
-    <t>16-02-1984</t>
-  </si>
-  <si>
-    <t>17-02-1984</t>
-  </si>
-  <si>
-    <t>18-02-1984</t>
-  </si>
-  <si>
-    <t>19-02-1984</t>
-  </si>
-  <si>
-    <t>20-02-1984</t>
-  </si>
-  <si>
-    <t>21-02-1984</t>
-  </si>
-  <si>
-    <t>22-02-1984</t>
-  </si>
-  <si>
-    <t>23-02-1984</t>
-  </si>
-  <si>
-    <t>24-02-1984</t>
-  </si>
-  <si>
-    <t>25-02-1984</t>
-  </si>
-  <si>
-    <t>26-02-1984</t>
-  </si>
-  <si>
-    <t>27-02-1984</t>
-  </si>
-  <si>
-    <t>28-02-1984</t>
-  </si>
-  <si>
-    <t>29-02-1984</t>
-  </si>
-  <si>
-    <t>01-03-1984</t>
-  </si>
-  <si>
-    <t>02-03-1984</t>
-  </si>
-  <si>
-    <t>03-03-1984</t>
-  </si>
-  <si>
-    <t>04-03-1984</t>
-  </si>
-  <si>
-    <t>05-03-1984</t>
-  </si>
-  <si>
-    <t>06-03-1984</t>
-  </si>
-  <si>
-    <t>07-03-1984</t>
-  </si>
-  <si>
-    <t>08-03-1984</t>
-  </si>
-  <si>
-    <t>09-03-1984</t>
-  </si>
-  <si>
-    <t>10-03-1984</t>
-  </si>
-  <si>
-    <t>11-03-1984</t>
-  </si>
-  <si>
-    <t>12-03-1984</t>
-  </si>
-  <si>
-    <t>13-03-1984</t>
-  </si>
-  <si>
-    <t>14-03-1984</t>
-  </si>
-  <si>
-    <t>15-03-1984</t>
-  </si>
-  <si>
-    <t>16-03-1984</t>
-  </si>
-  <si>
-    <t>17-03-1984</t>
-  </si>
-  <si>
-    <t>18-03-1984</t>
-  </si>
-  <si>
-    <t>19-03-1984</t>
-  </si>
-  <si>
-    <t>20-03-1984</t>
-  </si>
-  <si>
-    <t>21-03-1984</t>
-  </si>
-  <si>
-    <t>22-03-1984</t>
-  </si>
-  <si>
-    <t>23-03-1984</t>
-  </si>
-  <si>
-    <t>24-03-1984</t>
-  </si>
-  <si>
-    <t>25-03-1984</t>
-  </si>
-  <si>
-    <t>26-03-1984</t>
-  </si>
-  <si>
-    <t>27-03-1984</t>
-  </si>
-  <si>
-    <t>28-03-1984</t>
-  </si>
-  <si>
-    <t>29-03-1984</t>
-  </si>
-  <si>
-    <t>30-03-1984</t>
-  </si>
-  <si>
-    <t>31-03-1984</t>
-  </si>
-  <si>
-    <t>01-04-1984</t>
-  </si>
-  <si>
-    <t>02-04-1984</t>
-  </si>
-  <si>
-    <t>03-04-1984</t>
-  </si>
-  <si>
-    <t>04-04-1984</t>
-  </si>
-  <si>
-    <t>05-04-1984</t>
-  </si>
-  <si>
-    <t>06-04-1984</t>
-  </si>
-  <si>
-    <t>07-04-1984</t>
-  </si>
-  <si>
-    <t>08-04-1984</t>
-  </si>
-  <si>
-    <t>09-04-1984</t>
-  </si>
-  <si>
-    <t>10-04-1984</t>
-  </si>
-  <si>
-    <t>11-04-1984</t>
-  </si>
-  <si>
-    <t>12-04-1984</t>
-  </si>
-  <si>
-    <t>13-04-1984</t>
-  </si>
-  <si>
-    <t>14-04-1984</t>
-  </si>
-  <si>
-    <t>15-04-1984</t>
-  </si>
-  <si>
-    <t>16-04-1984</t>
-  </si>
-  <si>
-    <t>17-04-1984</t>
-  </si>
-  <si>
-    <t>18-04-1984</t>
-  </si>
-  <si>
-    <t>19-04-1984</t>
-  </si>
-  <si>
-    <t>20-04-1984</t>
-  </si>
-  <si>
-    <t>21-04-1984</t>
-  </si>
-  <si>
-    <t>22-04-1984</t>
-  </si>
-  <si>
-    <t>23-04-1984</t>
-  </si>
-  <si>
-    <t>24-04-1984</t>
-  </si>
-  <si>
-    <t>25-04-1984</t>
-  </si>
-  <si>
-    <t>26-04-1984</t>
-  </si>
-  <si>
-    <t>27-04-1984</t>
-  </si>
-  <si>
-    <t>28-04-1984</t>
-  </si>
-  <si>
-    <t>29-04-1984</t>
-  </si>
-  <si>
-    <t>30-04-1984</t>
-  </si>
-  <si>
-    <t>01-05-1984</t>
-  </si>
-  <si>
-    <t>02-05-1984</t>
-  </si>
-  <si>
-    <t>03-05-1984</t>
-  </si>
-  <si>
-    <t>04-05-1984</t>
-  </si>
-  <si>
-    <t>05-05-1984</t>
-  </si>
-  <si>
-    <t>06-05-1984</t>
-  </si>
-  <si>
-    <t>07-05-1984</t>
-  </si>
-  <si>
-    <t>08-05-1984</t>
-  </si>
-  <si>
-    <t>09-05-1984</t>
-  </si>
-  <si>
-    <t>10-05-1984</t>
-  </si>
-  <si>
-    <t>11-05-1984</t>
-  </si>
-  <si>
-    <t>12-05-1984</t>
-  </si>
-  <si>
-    <t>13-05-1984</t>
-  </si>
-  <si>
-    <t>14-05-1984</t>
-  </si>
-  <si>
-    <t>15-05-1984</t>
-  </si>
-  <si>
-    <t>16-05-1984</t>
-  </si>
-  <si>
-    <t>17-05-1984</t>
-  </si>
-  <si>
-    <t>18-05-1984</t>
-  </si>
-  <si>
-    <t>19-05-1984</t>
-  </si>
-  <si>
-    <t>20-05-1984</t>
-  </si>
-  <si>
-    <t>21-05-1984</t>
-  </si>
-  <si>
-    <t>22-05-1984</t>
-  </si>
-  <si>
-    <t>23-05-1984</t>
-  </si>
-  <si>
-    <t>24-05-1984</t>
-  </si>
-  <si>
-    <t>25-05-1984</t>
-  </si>
-  <si>
-    <t>26-05-1984</t>
-  </si>
-  <si>
-    <t>27-05-1984</t>
-  </si>
-  <si>
-    <t>28-05-1984</t>
-  </si>
-  <si>
-    <t>29-05-1984</t>
-  </si>
-  <si>
-    <t>30-05-1984</t>
-  </si>
-  <si>
-    <t>31-05-1984</t>
-  </si>
-  <si>
-    <t>01-06-1984</t>
-  </si>
-  <si>
-    <t>02-06-1984</t>
-  </si>
-  <si>
-    <t>03-06-1984</t>
-  </si>
-  <si>
-    <t>04-06-1984</t>
-  </si>
-  <si>
-    <t>05-06-1984</t>
-  </si>
-  <si>
-    <t>06-06-1984</t>
-  </si>
-  <si>
-    <t>07-06-1984</t>
-  </si>
-  <si>
-    <t>08-06-1984</t>
-  </si>
-  <si>
-    <t>09-06-1984</t>
-  </si>
-  <si>
-    <t>10-06-1984</t>
-  </si>
-  <si>
-    <t>11-06-1984</t>
-  </si>
-  <si>
-    <t>12-06-1984</t>
-  </si>
-  <si>
-    <t>13-06-1984</t>
-  </si>
-  <si>
-    <t>14-06-1984</t>
-  </si>
-  <si>
-    <t>15-06-1984</t>
-  </si>
-  <si>
-    <t>16-06-1984</t>
-  </si>
-  <si>
-    <t>17-06-1984</t>
-  </si>
-  <si>
-    <t>18-06-1984</t>
-  </si>
-  <si>
-    <t>19-06-1984</t>
-  </si>
-  <si>
-    <t>20-06-1984</t>
-  </si>
-  <si>
-    <t>21-06-1984</t>
-  </si>
-  <si>
-    <t>22-06-1984</t>
-  </si>
-  <si>
-    <t>23-06-1984</t>
-  </si>
-  <si>
-    <t>24-06-1984</t>
-  </si>
-  <si>
-    <t>25-06-1984</t>
-  </si>
-  <si>
-    <t>26-06-1984</t>
-  </si>
-  <si>
-    <t>27-06-1984</t>
-  </si>
-  <si>
-    <t>28-06-1984</t>
-  </si>
-  <si>
-    <t>29-06-1984</t>
-  </si>
-  <si>
-    <t>30-06-1984</t>
-  </si>
-  <si>
-    <t>01-07-1984</t>
-  </si>
-  <si>
-    <t>02-07-1984</t>
-  </si>
-  <si>
-    <t>03-07-1984</t>
-  </si>
-  <si>
-    <t>04-07-1984</t>
-  </si>
-  <si>
-    <t>05-07-1984</t>
-  </si>
-  <si>
-    <t>06-07-1984</t>
-  </si>
-  <si>
-    <t>07-07-1984</t>
-  </si>
-  <si>
-    <t>08-07-1984</t>
-  </si>
-  <si>
-    <t>09-07-1984</t>
-  </si>
-  <si>
-    <t>10-07-1984</t>
-  </si>
-  <si>
-    <t>11-07-1984</t>
-  </si>
-  <si>
-    <t>12-07-1984</t>
-  </si>
-  <si>
-    <t>13-07-1984</t>
-  </si>
-  <si>
-    <t>14-07-1984</t>
-  </si>
-  <si>
-    <t>15-07-1984</t>
-  </si>
-  <si>
-    <t>16-07-1984</t>
-  </si>
-  <si>
-    <t>17-07-1984</t>
-  </si>
-  <si>
-    <t>18-07-1984</t>
-  </si>
-  <si>
-    <t>19-07-1984</t>
-  </si>
-  <si>
-    <t>20-07-1984</t>
-  </si>
-  <si>
-    <t>21-07-1984</t>
-  </si>
-  <si>
-    <t>22-07-1984</t>
-  </si>
-  <si>
-    <t>23-07-1984</t>
-  </si>
-  <si>
-    <t>24-07-1984</t>
-  </si>
-  <si>
-    <t>25-07-1984</t>
-  </si>
-  <si>
-    <t>26-07-1984</t>
-  </si>
-  <si>
-    <t>27-07-1984</t>
-  </si>
-  <si>
-    <t>28-07-1984</t>
-  </si>
-  <si>
-    <t>29-07-1984</t>
-  </si>
-  <si>
-    <t>30-07-1984</t>
-  </si>
-  <si>
-    <t>31-07-1984</t>
-  </si>
-  <si>
-    <t>01-08-1984</t>
-  </si>
-  <si>
-    <t>02-08-1984</t>
-  </si>
-  <si>
-    <t>03-08-1984</t>
-  </si>
-  <si>
-    <t>04-08-1984</t>
-  </si>
-  <si>
-    <t>05-08-1984</t>
-  </si>
-  <si>
-    <t>06-08-1984</t>
-  </si>
-  <si>
-    <t>07-08-1984</t>
-  </si>
-  <si>
-    <t>08-08-1984</t>
-  </si>
-  <si>
-    <t>09-08-1984</t>
-  </si>
-  <si>
-    <t>10-08-1984</t>
-  </si>
-  <si>
-    <t>11-08-1984</t>
-  </si>
-  <si>
-    <t>12-08-1984</t>
-  </si>
-  <si>
-    <t>13-08-1984</t>
-  </si>
-  <si>
-    <t>14-08-1984</t>
-  </si>
-  <si>
-    <t>15-08-1984</t>
-  </si>
-  <si>
-    <t>16-08-1984</t>
-  </si>
-  <si>
-    <t>17-08-1984</t>
-  </si>
-  <si>
-    <t>18-08-1984</t>
-  </si>
-  <si>
-    <t>19-08-1984</t>
-  </si>
-  <si>
-    <t>20-08-1984</t>
-  </si>
-  <si>
-    <t>21-08-1984</t>
-  </si>
-  <si>
-    <t>22-08-1984</t>
-  </si>
-  <si>
-    <t>23-08-1984</t>
-  </si>
-  <si>
-    <t>24-08-1984</t>
-  </si>
-  <si>
-    <t>25-08-1984</t>
-  </si>
-  <si>
-    <t>26-08-1984</t>
-  </si>
-  <si>
-    <t>27-08-1984</t>
-  </si>
-  <si>
-    <t>28-08-1984</t>
-  </si>
-  <si>
-    <t>29-08-1984</t>
-  </si>
-  <si>
-    <t>30-08-1984</t>
-  </si>
-  <si>
-    <t>31-08-1984</t>
-  </si>
-  <si>
-    <t>01-09-1984</t>
-  </si>
-  <si>
-    <t>02-09-1984</t>
-  </si>
-  <si>
-    <t>03-09-1984</t>
-  </si>
-  <si>
-    <t>04-09-1984</t>
-  </si>
-  <si>
-    <t>05-09-1984</t>
-  </si>
-  <si>
-    <t>06-09-1984</t>
-  </si>
-  <si>
-    <t>07-09-1984</t>
-  </si>
-  <si>
-    <t>08-09-1984</t>
-  </si>
-  <si>
-    <t>09-09-1984</t>
-  </si>
-  <si>
-    <t>10-09-1984</t>
-  </si>
-  <si>
-    <t>11-09-1984</t>
-  </si>
-  <si>
-    <t>12-09-1984</t>
-  </si>
-  <si>
-    <t>13-09-1984</t>
-  </si>
-  <si>
-    <t>14-09-1984</t>
-  </si>
-  <si>
-    <t>15-09-1984</t>
-  </si>
-  <si>
-    <t>16-09-1984</t>
-  </si>
-  <si>
-    <t>17-09-1984</t>
-  </si>
-  <si>
-    <t>18-09-1984</t>
-  </si>
-  <si>
-    <t>19-09-1984</t>
-  </si>
-  <si>
-    <t>20-09-1984</t>
-  </si>
-  <si>
-    <t>21-09-1984</t>
-  </si>
-  <si>
-    <t>22-09-1984</t>
-  </si>
-  <si>
-    <t>23-09-1984</t>
-  </si>
-  <si>
-    <t>24-09-1984</t>
-  </si>
-  <si>
-    <t>25-09-1984</t>
-  </si>
-  <si>
-    <t>26-09-1984</t>
-  </si>
-  <si>
-    <t>27-09-1984</t>
-  </si>
-  <si>
-    <t>28-09-1984</t>
-  </si>
-  <si>
-    <t>29-09-1984</t>
-  </si>
-  <si>
-    <t>30-09-1984</t>
-  </si>
-  <si>
-    <t>01-10-1984</t>
-  </si>
-  <si>
-    <t>02-10-1984</t>
-  </si>
-  <si>
-    <t>03-10-1984</t>
-  </si>
-  <si>
-    <t>04-10-1984</t>
-  </si>
-  <si>
-    <t>05-10-1984</t>
-  </si>
-  <si>
-    <t>06-10-1984</t>
-  </si>
-  <si>
-    <t>07-10-1984</t>
-  </si>
-  <si>
-    <t>08-10-1984</t>
-  </si>
-  <si>
-    <t>09-10-1984</t>
-  </si>
-  <si>
-    <t>10-10-1984</t>
-  </si>
-  <si>
-    <t>11-10-1984</t>
-  </si>
-  <si>
-    <t>12-10-1984</t>
-  </si>
-  <si>
-    <t>13-10-1984</t>
-  </si>
-  <si>
-    <t>14-10-1984</t>
-  </si>
-  <si>
-    <t>15-10-1984</t>
-  </si>
-  <si>
-    <t>16-10-1984</t>
-  </si>
-  <si>
-    <t>17-10-1984</t>
-  </si>
-  <si>
-    <t>18-10-1984</t>
-  </si>
-  <si>
-    <t>19-10-1984</t>
-  </si>
-  <si>
-    <t>20-10-1984</t>
-  </si>
-  <si>
-    <t>21-10-1984</t>
-  </si>
-  <si>
-    <t>22-10-1984</t>
-  </si>
-  <si>
-    <t>23-10-1984</t>
-  </si>
-  <si>
-    <t>24-10-1984</t>
-  </si>
-  <si>
-    <t>25-10-1984</t>
-  </si>
-  <si>
-    <t>26-10-1984</t>
-  </si>
-  <si>
-    <t>27-10-1984</t>
-  </si>
-  <si>
-    <t>28-10-1984</t>
-  </si>
-  <si>
-    <t>29-10-1984</t>
-  </si>
-  <si>
-    <t>30-10-1984</t>
-  </si>
-  <si>
-    <t>31-10-1984</t>
-  </si>
-  <si>
-    <t>01-11-1984</t>
-  </si>
-  <si>
-    <t>02-11-1984</t>
-  </si>
-  <si>
-    <t>03-11-1984</t>
-  </si>
-  <si>
-    <t>04-11-1984</t>
-  </si>
-  <si>
-    <t>05-11-1984</t>
-  </si>
-  <si>
-    <t>06-11-1984</t>
-  </si>
-  <si>
-    <t>07-11-1984</t>
-  </si>
-  <si>
-    <t>08-11-1984</t>
-  </si>
-  <si>
-    <t>09-11-1984</t>
-  </si>
-  <si>
-    <t>10-11-1984</t>
-  </si>
-  <si>
-    <t>11-11-1984</t>
-  </si>
-  <si>
-    <t>12-11-1984</t>
-  </si>
-  <si>
-    <t>13-11-1984</t>
-  </si>
-  <si>
-    <t>14-11-1984</t>
-  </si>
-  <si>
-    <t>15-11-1984</t>
-  </si>
-  <si>
-    <t>16-11-1984</t>
-  </si>
-  <si>
-    <t>17-11-1984</t>
-  </si>
-  <si>
-    <t>18-11-1984</t>
-  </si>
-  <si>
-    <t>19-11-1984</t>
-  </si>
-  <si>
-    <t>20-11-1984</t>
-  </si>
-  <si>
-    <t>21-11-1984</t>
-  </si>
-  <si>
-    <t>22-11-1984</t>
-  </si>
-  <si>
-    <t>23-11-1984</t>
-  </si>
-  <si>
-    <t>24-11-1984</t>
-  </si>
-  <si>
-    <t>25-11-1984</t>
-  </si>
-  <si>
-    <t>26-11-1984</t>
-  </si>
-  <si>
-    <t>27-11-1984</t>
-  </si>
-  <si>
-    <t>28-11-1984</t>
-  </si>
-  <si>
-    <t>29-11-1984</t>
-  </si>
-  <si>
-    <t>30-11-1984</t>
-  </si>
-  <si>
-    <t>01-12-1984</t>
-  </si>
-  <si>
-    <t>02-12-1984</t>
-  </si>
-  <si>
-    <t>03-12-1984</t>
-  </si>
-  <si>
-    <t>04-12-1984</t>
-  </si>
-  <si>
-    <t>05-12-1984</t>
-  </si>
-  <si>
-    <t>06-12-1984</t>
-  </si>
-  <si>
-    <t>07-12-1984</t>
-  </si>
-  <si>
-    <t>08-12-1984</t>
-  </si>
-  <si>
-    <t>09-12-1984</t>
-  </si>
-  <si>
-    <t>10-12-1984</t>
-  </si>
-  <si>
-    <t>11-12-1984</t>
-  </si>
-  <si>
-    <t>12-12-1984</t>
-  </si>
-  <si>
-    <t>13-12-1984</t>
-  </si>
-  <si>
-    <t>14-12-1984</t>
-  </si>
-  <si>
-    <t>15-12-1984</t>
-  </si>
-  <si>
-    <t>16-12-1984</t>
-  </si>
-  <si>
-    <t>17-12-1984</t>
-  </si>
-  <si>
-    <t>18-12-1984</t>
-  </si>
-  <si>
-    <t>19-12-1984</t>
-  </si>
-  <si>
-    <t>20-12-1984</t>
-  </si>
-  <si>
-    <t>21-12-1984</t>
-  </si>
-  <si>
-    <t>22-12-1984</t>
-  </si>
-  <si>
-    <t>23-12-1984</t>
-  </si>
-  <si>
-    <t>24-12-1984</t>
-  </si>
-  <si>
-    <t>25-12-1984</t>
-  </si>
-  <si>
-    <t>26-12-1984</t>
-  </si>
-  <si>
-    <t>27-12-1984</t>
-  </si>
-  <si>
-    <t>28-12-1984</t>
-  </si>
-  <si>
-    <t>29-12-1984</t>
-  </si>
-  <si>
-    <t>30-12-1984</t>
-  </si>
-  <si>
-    <t>31-12-1984</t>
+    <t>01-01-1983</t>
+  </si>
+  <si>
+    <t>02-01-1983</t>
+  </si>
+  <si>
+    <t>03-01-1983</t>
+  </si>
+  <si>
+    <t>04-01-1983</t>
+  </si>
+  <si>
+    <t>05-01-1983</t>
+  </si>
+  <si>
+    <t>06-01-1983</t>
+  </si>
+  <si>
+    <t>07-01-1983</t>
+  </si>
+  <si>
+    <t>08-01-1983</t>
+  </si>
+  <si>
+    <t>09-01-1983</t>
+  </si>
+  <si>
+    <t>10-01-1983</t>
+  </si>
+  <si>
+    <t>11-01-1983</t>
+  </si>
+  <si>
+    <t>12-01-1983</t>
+  </si>
+  <si>
+    <t>13-01-1983</t>
+  </si>
+  <si>
+    <t>14-01-1983</t>
+  </si>
+  <si>
+    <t>15-01-1983</t>
+  </si>
+  <si>
+    <t>16-01-1983</t>
+  </si>
+  <si>
+    <t>17-01-1983</t>
+  </si>
+  <si>
+    <t>18-01-1983</t>
+  </si>
+  <si>
+    <t>19-01-1983</t>
+  </si>
+  <si>
+    <t>20-01-1983</t>
+  </si>
+  <si>
+    <t>21-01-1983</t>
+  </si>
+  <si>
+    <t>22-01-1983</t>
+  </si>
+  <si>
+    <t>23-01-1983</t>
+  </si>
+  <si>
+    <t>24-01-1983</t>
+  </si>
+  <si>
+    <t>25-01-1983</t>
+  </si>
+  <si>
+    <t>26-01-1983</t>
+  </si>
+  <si>
+    <t>27-01-1983</t>
+  </si>
+  <si>
+    <t>28-01-1983</t>
+  </si>
+  <si>
+    <t>29-01-1983</t>
+  </si>
+  <si>
+    <t>30-01-1983</t>
+  </si>
+  <si>
+    <t>31-01-1983</t>
+  </si>
+  <si>
+    <t>01-02-1983</t>
+  </si>
+  <si>
+    <t>02-02-1983</t>
+  </si>
+  <si>
+    <t>03-02-1983</t>
+  </si>
+  <si>
+    <t>04-02-1983</t>
+  </si>
+  <si>
+    <t>05-02-1983</t>
+  </si>
+  <si>
+    <t>06-02-1983</t>
+  </si>
+  <si>
+    <t>07-02-1983</t>
+  </si>
+  <si>
+    <t>08-02-1983</t>
+  </si>
+  <si>
+    <t>09-02-1983</t>
+  </si>
+  <si>
+    <t>10-02-1983</t>
+  </si>
+  <si>
+    <t>11-02-1983</t>
+  </si>
+  <si>
+    <t>12-02-1983</t>
+  </si>
+  <si>
+    <t>13-02-1983</t>
+  </si>
+  <si>
+    <t>14-02-1983</t>
+  </si>
+  <si>
+    <t>15-02-1983</t>
+  </si>
+  <si>
+    <t>16-02-1983</t>
+  </si>
+  <si>
+    <t>17-02-1983</t>
+  </si>
+  <si>
+    <t>18-02-1983</t>
+  </si>
+  <si>
+    <t>19-02-1983</t>
+  </si>
+  <si>
+    <t>20-02-1983</t>
+  </si>
+  <si>
+    <t>21-02-1983</t>
+  </si>
+  <si>
+    <t>22-02-1983</t>
+  </si>
+  <si>
+    <t>23-02-1983</t>
+  </si>
+  <si>
+    <t>24-02-1983</t>
+  </si>
+  <si>
+    <t>25-02-1983</t>
+  </si>
+  <si>
+    <t>26-02-1983</t>
+  </si>
+  <si>
+    <t>27-02-1983</t>
+  </si>
+  <si>
+    <t>28-02-1983</t>
+  </si>
+  <si>
+    <t>01-03-1983</t>
+  </si>
+  <si>
+    <t>02-03-1983</t>
+  </si>
+  <si>
+    <t>03-03-1983</t>
+  </si>
+  <si>
+    <t>04-03-1983</t>
+  </si>
+  <si>
+    <t>05-03-1983</t>
+  </si>
+  <si>
+    <t>06-03-1983</t>
+  </si>
+  <si>
+    <t>07-03-1983</t>
+  </si>
+  <si>
+    <t>08-03-1983</t>
+  </si>
+  <si>
+    <t>09-03-1983</t>
+  </si>
+  <si>
+    <t>10-03-1983</t>
+  </si>
+  <si>
+    <t>11-03-1983</t>
+  </si>
+  <si>
+    <t>12-03-1983</t>
+  </si>
+  <si>
+    <t>13-03-1983</t>
+  </si>
+  <si>
+    <t>14-03-1983</t>
+  </si>
+  <si>
+    <t>15-03-1983</t>
+  </si>
+  <si>
+    <t>16-03-1983</t>
+  </si>
+  <si>
+    <t>17-03-1983</t>
+  </si>
+  <si>
+    <t>18-03-1983</t>
+  </si>
+  <si>
+    <t>19-03-1983</t>
+  </si>
+  <si>
+    <t>20-03-1983</t>
+  </si>
+  <si>
+    <t>21-03-1983</t>
+  </si>
+  <si>
+    <t>22-03-1983</t>
+  </si>
+  <si>
+    <t>23-03-1983</t>
+  </si>
+  <si>
+    <t>24-03-1983</t>
+  </si>
+  <si>
+    <t>25-03-1983</t>
+  </si>
+  <si>
+    <t>26-03-1983</t>
+  </si>
+  <si>
+    <t>27-03-1983</t>
+  </si>
+  <si>
+    <t>28-03-1983</t>
+  </si>
+  <si>
+    <t>29-03-1983</t>
+  </si>
+  <si>
+    <t>30-03-1983</t>
+  </si>
+  <si>
+    <t>31-03-1983</t>
+  </si>
+  <si>
+    <t>01-04-1983</t>
+  </si>
+  <si>
+    <t>02-04-1983</t>
+  </si>
+  <si>
+    <t>03-04-1983</t>
+  </si>
+  <si>
+    <t>04-04-1983</t>
+  </si>
+  <si>
+    <t>05-04-1983</t>
+  </si>
+  <si>
+    <t>06-04-1983</t>
+  </si>
+  <si>
+    <t>07-04-1983</t>
+  </si>
+  <si>
+    <t>08-04-1983</t>
+  </si>
+  <si>
+    <t>09-04-1983</t>
+  </si>
+  <si>
+    <t>10-04-1983</t>
+  </si>
+  <si>
+    <t>11-04-1983</t>
+  </si>
+  <si>
+    <t>12-04-1983</t>
+  </si>
+  <si>
+    <t>13-04-1983</t>
+  </si>
+  <si>
+    <t>14-04-1983</t>
+  </si>
+  <si>
+    <t>15-04-1983</t>
+  </si>
+  <si>
+    <t>16-04-1983</t>
+  </si>
+  <si>
+    <t>17-04-1983</t>
+  </si>
+  <si>
+    <t>18-04-1983</t>
+  </si>
+  <si>
+    <t>19-04-1983</t>
+  </si>
+  <si>
+    <t>20-04-1983</t>
+  </si>
+  <si>
+    <t>21-04-1983</t>
+  </si>
+  <si>
+    <t>22-04-1983</t>
+  </si>
+  <si>
+    <t>23-04-1983</t>
+  </si>
+  <si>
+    <t>24-04-1983</t>
+  </si>
+  <si>
+    <t>25-04-1983</t>
+  </si>
+  <si>
+    <t>26-04-1983</t>
+  </si>
+  <si>
+    <t>27-04-1983</t>
+  </si>
+  <si>
+    <t>28-04-1983</t>
+  </si>
+  <si>
+    <t>29-04-1983</t>
+  </si>
+  <si>
+    <t>30-04-1983</t>
+  </si>
+  <si>
+    <t>01-05-1983</t>
+  </si>
+  <si>
+    <t>02-05-1983</t>
+  </si>
+  <si>
+    <t>03-05-1983</t>
+  </si>
+  <si>
+    <t>04-05-1983</t>
+  </si>
+  <si>
+    <t>05-05-1983</t>
+  </si>
+  <si>
+    <t>06-05-1983</t>
+  </si>
+  <si>
+    <t>07-05-1983</t>
+  </si>
+  <si>
+    <t>08-05-1983</t>
+  </si>
+  <si>
+    <t>09-05-1983</t>
+  </si>
+  <si>
+    <t>10-05-1983</t>
+  </si>
+  <si>
+    <t>11-05-1983</t>
+  </si>
+  <si>
+    <t>12-05-1983</t>
+  </si>
+  <si>
+    <t>13-05-1983</t>
+  </si>
+  <si>
+    <t>14-05-1983</t>
+  </si>
+  <si>
+    <t>15-05-1983</t>
+  </si>
+  <si>
+    <t>16-05-1983</t>
+  </si>
+  <si>
+    <t>17-05-1983</t>
+  </si>
+  <si>
+    <t>18-05-1983</t>
+  </si>
+  <si>
+    <t>19-05-1983</t>
+  </si>
+  <si>
+    <t>20-05-1983</t>
+  </si>
+  <si>
+    <t>21-05-1983</t>
+  </si>
+  <si>
+    <t>22-05-1983</t>
+  </si>
+  <si>
+    <t>23-05-1983</t>
+  </si>
+  <si>
+    <t>24-05-1983</t>
+  </si>
+  <si>
+    <t>25-05-1983</t>
+  </si>
+  <si>
+    <t>26-05-1983</t>
+  </si>
+  <si>
+    <t>27-05-1983</t>
+  </si>
+  <si>
+    <t>28-05-1983</t>
+  </si>
+  <si>
+    <t>29-05-1983</t>
+  </si>
+  <si>
+    <t>30-05-1983</t>
+  </si>
+  <si>
+    <t>31-05-1983</t>
+  </si>
+  <si>
+    <t>01-06-1983</t>
+  </si>
+  <si>
+    <t>02-06-1983</t>
+  </si>
+  <si>
+    <t>03-06-1983</t>
+  </si>
+  <si>
+    <t>04-06-1983</t>
+  </si>
+  <si>
+    <t>05-06-1983</t>
+  </si>
+  <si>
+    <t>06-06-1983</t>
+  </si>
+  <si>
+    <t>07-06-1983</t>
+  </si>
+  <si>
+    <t>08-06-1983</t>
+  </si>
+  <si>
+    <t>09-06-1983</t>
+  </si>
+  <si>
+    <t>10-06-1983</t>
+  </si>
+  <si>
+    <t>11-06-1983</t>
+  </si>
+  <si>
+    <t>12-06-1983</t>
+  </si>
+  <si>
+    <t>13-06-1983</t>
+  </si>
+  <si>
+    <t>14-06-1983</t>
+  </si>
+  <si>
+    <t>15-06-1983</t>
+  </si>
+  <si>
+    <t>16-06-1983</t>
+  </si>
+  <si>
+    <t>17-06-1983</t>
+  </si>
+  <si>
+    <t>18-06-1983</t>
+  </si>
+  <si>
+    <t>19-06-1983</t>
+  </si>
+  <si>
+    <t>20-06-1983</t>
+  </si>
+  <si>
+    <t>21-06-1983</t>
+  </si>
+  <si>
+    <t>22-06-1983</t>
+  </si>
+  <si>
+    <t>23-06-1983</t>
+  </si>
+  <si>
+    <t>24-06-1983</t>
+  </si>
+  <si>
+    <t>25-06-1983</t>
+  </si>
+  <si>
+    <t>26-06-1983</t>
+  </si>
+  <si>
+    <t>27-06-1983</t>
+  </si>
+  <si>
+    <t>28-06-1983</t>
+  </si>
+  <si>
+    <t>29-06-1983</t>
+  </si>
+  <si>
+    <t>30-06-1983</t>
+  </si>
+  <si>
+    <t>01-07-1983</t>
+  </si>
+  <si>
+    <t>02-07-1983</t>
+  </si>
+  <si>
+    <t>03-07-1983</t>
+  </si>
+  <si>
+    <t>04-07-1983</t>
+  </si>
+  <si>
+    <t>05-07-1983</t>
+  </si>
+  <si>
+    <t>06-07-1983</t>
+  </si>
+  <si>
+    <t>07-07-1983</t>
+  </si>
+  <si>
+    <t>08-07-1983</t>
+  </si>
+  <si>
+    <t>09-07-1983</t>
+  </si>
+  <si>
+    <t>10-07-1983</t>
+  </si>
+  <si>
+    <t>11-07-1983</t>
+  </si>
+  <si>
+    <t>12-07-1983</t>
+  </si>
+  <si>
+    <t>13-07-1983</t>
+  </si>
+  <si>
+    <t>14-07-1983</t>
+  </si>
+  <si>
+    <t>15-07-1983</t>
+  </si>
+  <si>
+    <t>16-07-1983</t>
+  </si>
+  <si>
+    <t>17-07-1983</t>
+  </si>
+  <si>
+    <t>18-07-1983</t>
+  </si>
+  <si>
+    <t>19-07-1983</t>
+  </si>
+  <si>
+    <t>20-07-1983</t>
+  </si>
+  <si>
+    <t>21-07-1983</t>
+  </si>
+  <si>
+    <t>22-07-1983</t>
+  </si>
+  <si>
+    <t>23-07-1983</t>
+  </si>
+  <si>
+    <t>24-07-1983</t>
+  </si>
+  <si>
+    <t>25-07-1983</t>
+  </si>
+  <si>
+    <t>26-07-1983</t>
+  </si>
+  <si>
+    <t>27-07-1983</t>
+  </si>
+  <si>
+    <t>28-07-1983</t>
+  </si>
+  <si>
+    <t>29-07-1983</t>
+  </si>
+  <si>
+    <t>30-07-1983</t>
+  </si>
+  <si>
+    <t>31-07-1983</t>
+  </si>
+  <si>
+    <t>01-08-1983</t>
+  </si>
+  <si>
+    <t>02-08-1983</t>
+  </si>
+  <si>
+    <t>03-08-1983</t>
+  </si>
+  <si>
+    <t>04-08-1983</t>
+  </si>
+  <si>
+    <t>05-08-1983</t>
+  </si>
+  <si>
+    <t>06-08-1983</t>
+  </si>
+  <si>
+    <t>07-08-1983</t>
+  </si>
+  <si>
+    <t>08-08-1983</t>
+  </si>
+  <si>
+    <t>09-08-1983</t>
+  </si>
+  <si>
+    <t>10-08-1983</t>
+  </si>
+  <si>
+    <t>11-08-1983</t>
+  </si>
+  <si>
+    <t>12-08-1983</t>
+  </si>
+  <si>
+    <t>13-08-1983</t>
+  </si>
+  <si>
+    <t>14-08-1983</t>
+  </si>
+  <si>
+    <t>15-08-1983</t>
+  </si>
+  <si>
+    <t>16-08-1983</t>
+  </si>
+  <si>
+    <t>17-08-1983</t>
+  </si>
+  <si>
+    <t>18-08-1983</t>
+  </si>
+  <si>
+    <t>19-08-1983</t>
+  </si>
+  <si>
+    <t>20-08-1983</t>
+  </si>
+  <si>
+    <t>21-08-1983</t>
+  </si>
+  <si>
+    <t>22-08-1983</t>
+  </si>
+  <si>
+    <t>23-08-1983</t>
+  </si>
+  <si>
+    <t>24-08-1983</t>
+  </si>
+  <si>
+    <t>25-08-1983</t>
+  </si>
+  <si>
+    <t>26-08-1983</t>
+  </si>
+  <si>
+    <t>27-08-1983</t>
+  </si>
+  <si>
+    <t>28-08-1983</t>
+  </si>
+  <si>
+    <t>29-08-1983</t>
+  </si>
+  <si>
+    <t>30-08-1983</t>
+  </si>
+  <si>
+    <t>31-08-1983</t>
+  </si>
+  <si>
+    <t>01-09-1983</t>
+  </si>
+  <si>
+    <t>02-09-1983</t>
+  </si>
+  <si>
+    <t>03-09-1983</t>
+  </si>
+  <si>
+    <t>04-09-1983</t>
+  </si>
+  <si>
+    <t>05-09-1983</t>
+  </si>
+  <si>
+    <t>06-09-1983</t>
+  </si>
+  <si>
+    <t>07-09-1983</t>
+  </si>
+  <si>
+    <t>08-09-1983</t>
+  </si>
+  <si>
+    <t>09-09-1983</t>
+  </si>
+  <si>
+    <t>10-09-1983</t>
+  </si>
+  <si>
+    <t>11-09-1983</t>
+  </si>
+  <si>
+    <t>12-09-1983</t>
+  </si>
+  <si>
+    <t>13-09-1983</t>
+  </si>
+  <si>
+    <t>14-09-1983</t>
+  </si>
+  <si>
+    <t>15-09-1983</t>
+  </si>
+  <si>
+    <t>16-09-1983</t>
+  </si>
+  <si>
+    <t>17-09-1983</t>
+  </si>
+  <si>
+    <t>18-09-1983</t>
+  </si>
+  <si>
+    <t>19-09-1983</t>
+  </si>
+  <si>
+    <t>20-09-1983</t>
+  </si>
+  <si>
+    <t>21-09-1983</t>
+  </si>
+  <si>
+    <t>22-09-1983</t>
+  </si>
+  <si>
+    <t>23-09-1983</t>
+  </si>
+  <si>
+    <t>24-09-1983</t>
+  </si>
+  <si>
+    <t>25-09-1983</t>
+  </si>
+  <si>
+    <t>26-09-1983</t>
+  </si>
+  <si>
+    <t>27-09-1983</t>
+  </si>
+  <si>
+    <t>28-09-1983</t>
+  </si>
+  <si>
+    <t>29-09-1983</t>
+  </si>
+  <si>
+    <t>30-09-1983</t>
+  </si>
+  <si>
+    <t>01-10-1983</t>
+  </si>
+  <si>
+    <t>02-10-1983</t>
+  </si>
+  <si>
+    <t>03-10-1983</t>
+  </si>
+  <si>
+    <t>04-10-1983</t>
+  </si>
+  <si>
+    <t>05-10-1983</t>
+  </si>
+  <si>
+    <t>06-10-1983</t>
+  </si>
+  <si>
+    <t>07-10-1983</t>
+  </si>
+  <si>
+    <t>08-10-1983</t>
+  </si>
+  <si>
+    <t>09-10-1983</t>
+  </si>
+  <si>
+    <t>10-10-1983</t>
+  </si>
+  <si>
+    <t>11-10-1983</t>
+  </si>
+  <si>
+    <t>12-10-1983</t>
+  </si>
+  <si>
+    <t>13-10-1983</t>
+  </si>
+  <si>
+    <t>14-10-1983</t>
+  </si>
+  <si>
+    <t>15-10-1983</t>
+  </si>
+  <si>
+    <t>16-10-1983</t>
+  </si>
+  <si>
+    <t>17-10-1983</t>
+  </si>
+  <si>
+    <t>18-10-1983</t>
+  </si>
+  <si>
+    <t>19-10-1983</t>
+  </si>
+  <si>
+    <t>20-10-1983</t>
+  </si>
+  <si>
+    <t>21-10-1983</t>
+  </si>
+  <si>
+    <t>22-10-1983</t>
+  </si>
+  <si>
+    <t>23-10-1983</t>
+  </si>
+  <si>
+    <t>24-10-1983</t>
+  </si>
+  <si>
+    <t>25-10-1983</t>
+  </si>
+  <si>
+    <t>26-10-1983</t>
+  </si>
+  <si>
+    <t>27-10-1983</t>
+  </si>
+  <si>
+    <t>28-10-1983</t>
+  </si>
+  <si>
+    <t>29-10-1983</t>
+  </si>
+  <si>
+    <t>30-10-1983</t>
+  </si>
+  <si>
+    <t>31-10-1983</t>
+  </si>
+  <si>
+    <t>01-11-1983</t>
+  </si>
+  <si>
+    <t>02-11-1983</t>
+  </si>
+  <si>
+    <t>03-11-1983</t>
+  </si>
+  <si>
+    <t>04-11-1983</t>
+  </si>
+  <si>
+    <t>05-11-1983</t>
+  </si>
+  <si>
+    <t>06-11-1983</t>
+  </si>
+  <si>
+    <t>07-11-1983</t>
+  </si>
+  <si>
+    <t>08-11-1983</t>
+  </si>
+  <si>
+    <t>09-11-1983</t>
+  </si>
+  <si>
+    <t>10-11-1983</t>
+  </si>
+  <si>
+    <t>11-11-1983</t>
+  </si>
+  <si>
+    <t>12-11-1983</t>
+  </si>
+  <si>
+    <t>13-11-1983</t>
+  </si>
+  <si>
+    <t>14-11-1983</t>
+  </si>
+  <si>
+    <t>15-11-1983</t>
+  </si>
+  <si>
+    <t>16-11-1983</t>
+  </si>
+  <si>
+    <t>17-11-1983</t>
+  </si>
+  <si>
+    <t>18-11-1983</t>
+  </si>
+  <si>
+    <t>19-11-1983</t>
+  </si>
+  <si>
+    <t>20-11-1983</t>
+  </si>
+  <si>
+    <t>21-11-1983</t>
+  </si>
+  <si>
+    <t>22-11-1983</t>
+  </si>
+  <si>
+    <t>23-11-1983</t>
+  </si>
+  <si>
+    <t>24-11-1983</t>
+  </si>
+  <si>
+    <t>25-11-1983</t>
+  </si>
+  <si>
+    <t>26-11-1983</t>
+  </si>
+  <si>
+    <t>27-11-1983</t>
+  </si>
+  <si>
+    <t>28-11-1983</t>
+  </si>
+  <si>
+    <t>29-11-1983</t>
+  </si>
+  <si>
+    <t>30-11-1983</t>
+  </si>
+  <si>
+    <t>01-12-1983</t>
+  </si>
+  <si>
+    <t>02-12-1983</t>
+  </si>
+  <si>
+    <t>03-12-1983</t>
+  </si>
+  <si>
+    <t>04-12-1983</t>
+  </si>
+  <si>
+    <t>05-12-1983</t>
+  </si>
+  <si>
+    <t>06-12-1983</t>
+  </si>
+  <si>
+    <t>07-12-1983</t>
+  </si>
+  <si>
+    <t>08-12-1983</t>
+  </si>
+  <si>
+    <t>09-12-1983</t>
+  </si>
+  <si>
+    <t>10-12-1983</t>
+  </si>
+  <si>
+    <t>11-12-1983</t>
+  </si>
+  <si>
+    <t>12-12-1983</t>
+  </si>
+  <si>
+    <t>13-12-1983</t>
+  </si>
+  <si>
+    <t>14-12-1983</t>
+  </si>
+  <si>
+    <t>15-12-1983</t>
+  </si>
+  <si>
+    <t>16-12-1983</t>
+  </si>
+  <si>
+    <t>17-12-1983</t>
+  </si>
+  <si>
+    <t>18-12-1983</t>
+  </si>
+  <si>
+    <t>19-12-1983</t>
+  </si>
+  <si>
+    <t>20-12-1983</t>
+  </si>
+  <si>
+    <t>21-12-1983</t>
+  </si>
+  <si>
+    <t>22-12-1983</t>
+  </si>
+  <si>
+    <t>23-12-1983</t>
+  </si>
+  <si>
+    <t>24-12-1983</t>
+  </si>
+  <si>
+    <t>25-12-1983</t>
+  </si>
+  <si>
+    <t>26-12-1983</t>
+  </si>
+  <si>
+    <t>27-12-1983</t>
+  </si>
+  <si>
+    <t>28-12-1983</t>
+  </si>
+  <si>
+    <t>29-12-1983</t>
+  </si>
+  <si>
+    <t>30-12-1983</t>
+  </si>
+  <si>
+    <t>31-12-1983</t>
   </si>
 </sst>
 </file>
@@ -1478,7 +1475,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C367"/>
+  <dimension ref="A1:C366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1500,7 +1497,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1824.79</v>
+        <v>1466.21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1508,7 +1505,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>1825.55</v>
+        <v>1467.74</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1516,7 +1513,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>1826.31</v>
+        <v>1469.28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1524,7 +1521,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>1827.08</v>
+        <v>1470.82</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1532,7 +1529,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>1827.84</v>
+        <v>1472.36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1540,7 +1537,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>1828.6</v>
+        <v>1473.9</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1548,7 +1545,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>1829.36</v>
+        <v>1475.45</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1556,7 +1553,7 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>1830.12</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1564,7 +1561,7 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>1830.89</v>
+        <v>1478.54</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1572,7 +1569,7 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>1831.24</v>
+        <v>1479.11</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1580,7 +1577,7 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>1831.6</v>
+        <v>1479.68</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1588,7 +1585,7 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>1831.95</v>
+        <v>1480.25</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1596,7 +1593,7 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>1832.3</v>
+        <v>1480.82</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1604,7 +1601,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>1832.66</v>
+        <v>1481.39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1612,7 +1609,7 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>1833.01</v>
+        <v>1481.96</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1620,7 +1617,7 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>1833.36</v>
+        <v>1482.53</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1628,7 +1625,7 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>1833.72</v>
+        <v>1483.1</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1636,7 +1633,7 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>1834.07</v>
+        <v>1483.67</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1644,7 +1641,7 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>1834.43</v>
+        <v>1484.24</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1652,7 +1649,7 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>1834.78</v>
+        <v>1484.81</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1660,7 +1657,7 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>1835.13</v>
+        <v>1485.38</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1668,7 +1665,7 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>1835.49</v>
+        <v>1485.95</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1676,7 +1673,7 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>1835.84</v>
+        <v>1486.53</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1684,7 +1681,7 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>1836.2</v>
+        <v>1487.1</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1692,7 +1689,7 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>1836.55</v>
+        <v>1487.67</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1700,7 +1697,7 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>1836.91</v>
+        <v>1488.24</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1708,7 +1705,7 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>1837.26</v>
+        <v>1488.82</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1716,7 +1713,7 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>1837.62</v>
+        <v>1489.39</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1724,7 +1721,7 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>1837.97</v>
+        <v>1489.96</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1732,7 +1729,7 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>1838.32</v>
+        <v>1490.54</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1740,7 +1737,7 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>1838.68</v>
+        <v>1491.11</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1748,7 +1745,7 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>1839.03</v>
+        <v>1491.68</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1756,7 +1753,7 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>1839.39</v>
+        <v>1492.26</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1764,7 +1761,7 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>1839.74</v>
+        <v>1492.83</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1772,7 +1769,7 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>1840.1</v>
+        <v>1493.41</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1780,7 +1777,7 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>1840.45</v>
+        <v>1493.98</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1788,7 +1785,7 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>1840.81</v>
+        <v>1494.56</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1796,7 +1793,7 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>1841.16</v>
+        <v>1495.13</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1804,7 +1801,7 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>1841.52</v>
+        <v>1495.71</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1812,7 +1809,7 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>1841.88</v>
+        <v>1496.28</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1820,7 +1817,7 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>1841.94</v>
+        <v>1497.23</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1828,7 +1825,7 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>1842.01</v>
+        <v>1498.19</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1836,7 +1833,7 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>1842.07</v>
+        <v>1499.14</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1844,7 +1841,7 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>1842.13</v>
+        <v>1500.1</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1852,7 +1849,7 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>1842.2</v>
+        <v>1501.05</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1860,7 +1857,7 @@
         <v>48</v>
       </c>
       <c r="B47">
-        <v>1842.26</v>
+        <v>1502.01</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1868,7 +1865,7 @@
         <v>49</v>
       </c>
       <c r="B48">
-        <v>1842.32</v>
+        <v>1502.97</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1876,7 +1873,7 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>1842.39</v>
+        <v>1503.93</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1884,7 +1881,7 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>1842.45</v>
+        <v>1504.88</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1892,7 +1889,7 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>1842.51</v>
+        <v>1505.84</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1900,7 +1897,7 @@
         <v>53</v>
       </c>
       <c r="B52">
-        <v>1842.58</v>
+        <v>1506.8</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1908,7 +1905,7 @@
         <v>54</v>
       </c>
       <c r="B53">
-        <v>1842.64</v>
+        <v>1507.76</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1916,7 +1913,7 @@
         <v>55</v>
       </c>
       <c r="B54">
-        <v>1842.71</v>
+        <v>1508.72</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1924,7 +1921,7 @@
         <v>56</v>
       </c>
       <c r="B55">
-        <v>1842.77</v>
+        <v>1509.69</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1932,7 +1929,7 @@
         <v>57</v>
       </c>
       <c r="B56">
-        <v>1842.83</v>
+        <v>1510.65</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1940,7 +1937,7 @@
         <v>58</v>
       </c>
       <c r="B57">
-        <v>1842.9</v>
+        <v>1511.61</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1948,7 +1945,7 @@
         <v>59</v>
       </c>
       <c r="B58">
-        <v>1842.96</v>
+        <v>1512.57</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1956,7 +1953,7 @@
         <v>60</v>
       </c>
       <c r="B59">
-        <v>1843.02</v>
+        <v>1513.54</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1964,7 +1961,7 @@
         <v>61</v>
       </c>
       <c r="B60">
-        <v>1843.09</v>
+        <v>1514.5</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1972,7 +1969,7 @@
         <v>62</v>
       </c>
       <c r="B61">
-        <v>1843.15</v>
+        <v>1515.47</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1980,7 +1977,7 @@
         <v>63</v>
       </c>
       <c r="B62">
-        <v>1843.21</v>
+        <v>1516.43</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1988,7 +1985,7 @@
         <v>64</v>
       </c>
       <c r="B63">
-        <v>1843.28</v>
+        <v>1517.4</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1996,7 +1993,7 @@
         <v>65</v>
       </c>
       <c r="B64">
-        <v>1843.34</v>
+        <v>1518.37</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2004,7 +2001,7 @@
         <v>66</v>
       </c>
       <c r="B65">
-        <v>1843.4</v>
+        <v>1519.34</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2012,7 +2009,7 @@
         <v>67</v>
       </c>
       <c r="B66">
-        <v>1843.47</v>
+        <v>1520.3</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2020,7 +2017,7 @@
         <v>68</v>
       </c>
       <c r="B67">
-        <v>1843.53</v>
+        <v>1521.27</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2028,7 +2025,7 @@
         <v>69</v>
       </c>
       <c r="B68">
-        <v>1843.59</v>
+        <v>1522.24</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2036,7 +2033,7 @@
         <v>70</v>
       </c>
       <c r="B69">
-        <v>1843.66</v>
+        <v>1523.21</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2044,7 +2041,7 @@
         <v>71</v>
       </c>
       <c r="B70">
-        <v>1843.72</v>
+        <v>1523.26</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2052,7 +2049,7 @@
         <v>72</v>
       </c>
       <c r="B71">
-        <v>1843.6</v>
+        <v>1523.31</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2060,7 +2057,7 @@
         <v>73</v>
       </c>
       <c r="B72">
-        <v>1843.48</v>
+        <v>1523.36</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2068,7 +2065,7 @@
         <v>74</v>
       </c>
       <c r="B73">
-        <v>1843.36</v>
+        <v>1523.41</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2076,7 +2073,7 @@
         <v>75</v>
       </c>
       <c r="B74">
-        <v>1843.24</v>
+        <v>1523.46</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2084,7 +2081,7 @@
         <v>76</v>
       </c>
       <c r="B75">
-        <v>1843.12</v>
+        <v>1523.5</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2092,7 +2089,7 @@
         <v>77</v>
       </c>
       <c r="B76">
-        <v>1843.01</v>
+        <v>1523.55</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2100,7 +2097,7 @@
         <v>78</v>
       </c>
       <c r="B77">
-        <v>1842.89</v>
+        <v>1523.6</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2108,7 +2105,7 @@
         <v>79</v>
       </c>
       <c r="B78">
-        <v>1842.77</v>
+        <v>1523.65</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2116,7 +2113,7 @@
         <v>80</v>
       </c>
       <c r="B79">
-        <v>1842.65</v>
+        <v>1523.7</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2124,7 +2121,7 @@
         <v>81</v>
       </c>
       <c r="B80">
-        <v>1842.53</v>
+        <v>1523.75</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2132,7 +2129,7 @@
         <v>82</v>
       </c>
       <c r="B81">
-        <v>1842.41</v>
+        <v>1523.8</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2140,7 +2137,7 @@
         <v>83</v>
       </c>
       <c r="B82">
-        <v>1842.29</v>
+        <v>1523.85</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2148,7 +2145,7 @@
         <v>84</v>
       </c>
       <c r="B83">
-        <v>1842.17</v>
+        <v>1523.9</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2156,7 +2153,7 @@
         <v>85</v>
       </c>
       <c r="B84">
-        <v>1842.05</v>
+        <v>1523.95</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2164,7 +2161,7 @@
         <v>86</v>
       </c>
       <c r="B85">
-        <v>1841.93</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2172,7 +2169,7 @@
         <v>87</v>
       </c>
       <c r="B86">
-        <v>1841.82</v>
+        <v>1524.05</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2180,7 +2177,7 @@
         <v>88</v>
       </c>
       <c r="B87">
-        <v>1841.7</v>
+        <v>1524.09</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2188,7 +2185,7 @@
         <v>89</v>
       </c>
       <c r="B88">
-        <v>1841.58</v>
+        <v>1524.14</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2196,7 +2193,7 @@
         <v>90</v>
       </c>
       <c r="B89">
-        <v>1841.46</v>
+        <v>1524.19</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2204,7 +2201,7 @@
         <v>91</v>
       </c>
       <c r="B90">
-        <v>1841.34</v>
+        <v>1524.24</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2212,7 +2209,7 @@
         <v>92</v>
       </c>
       <c r="B91">
-        <v>1841.22</v>
+        <v>1524.29</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2220,7 +2217,7 @@
         <v>93</v>
       </c>
       <c r="B92">
-        <v>1841.1</v>
+        <v>1524.34</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2228,7 +2225,7 @@
         <v>94</v>
       </c>
       <c r="B93">
-        <v>1840.98</v>
+        <v>1524.39</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2236,7 +2233,7 @@
         <v>95</v>
       </c>
       <c r="B94">
-        <v>1840.86</v>
+        <v>1524.44</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2244,7 +2241,7 @@
         <v>96</v>
       </c>
       <c r="B95">
-        <v>1840.75</v>
+        <v>1524.49</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2252,7 +2249,7 @@
         <v>97</v>
       </c>
       <c r="B96">
-        <v>1840.63</v>
+        <v>1524.54</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2260,7 +2257,7 @@
         <v>98</v>
       </c>
       <c r="B97">
-        <v>1840.51</v>
+        <v>1524.59</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2268,7 +2265,7 @@
         <v>99</v>
       </c>
       <c r="B98">
-        <v>1840.39</v>
+        <v>1524.63</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2276,7 +2273,7 @@
         <v>100</v>
       </c>
       <c r="B99">
-        <v>1840.27</v>
+        <v>1524.68</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2284,7 +2281,7 @@
         <v>101</v>
       </c>
       <c r="B100">
-        <v>1840.15</v>
+        <v>1524.73</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2292,7 +2289,7 @@
         <v>102</v>
       </c>
       <c r="B101">
-        <v>1840.03</v>
+        <v>1525.69</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2300,7 +2297,7 @@
         <v>103</v>
       </c>
       <c r="B102">
-        <v>1841.55</v>
+        <v>1526.64</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2308,7 +2305,7 @@
         <v>104</v>
       </c>
       <c r="B103">
-        <v>1843.06</v>
+        <v>1527.6</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2316,7 +2313,7 @@
         <v>105</v>
       </c>
       <c r="B104">
-        <v>1844.58</v>
+        <v>1528.56</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2324,7 +2321,7 @@
         <v>106</v>
       </c>
       <c r="B105">
-        <v>1846.1</v>
+        <v>1529.52</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2332,7 +2329,7 @@
         <v>107</v>
       </c>
       <c r="B106">
-        <v>1847.62</v>
+        <v>1530.48</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2340,7 +2337,7 @@
         <v>108</v>
       </c>
       <c r="B107">
-        <v>1849.14</v>
+        <v>1531.44</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2348,7 +2345,7 @@
         <v>109</v>
       </c>
       <c r="B108">
-        <v>1850.66</v>
+        <v>1532.4</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2356,7 +2353,7 @@
         <v>110</v>
       </c>
       <c r="B109">
-        <v>1852.19</v>
+        <v>1533.36</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2364,7 +2361,7 @@
         <v>111</v>
       </c>
       <c r="B110">
-        <v>1853.71</v>
+        <v>1534.33</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2372,7 +2369,7 @@
         <v>112</v>
       </c>
       <c r="B111">
-        <v>1855.24</v>
+        <v>1535.29</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2380,7 +2377,7 @@
         <v>113</v>
       </c>
       <c r="B112">
-        <v>1856.77</v>
+        <v>1536.25</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2388,7 +2385,7 @@
         <v>114</v>
       </c>
       <c r="B113">
-        <v>1858.29</v>
+        <v>1537.22</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2396,7 +2393,7 @@
         <v>115</v>
       </c>
       <c r="B114">
-        <v>1859.82</v>
+        <v>1538.18</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2404,7 +2401,7 @@
         <v>116</v>
       </c>
       <c r="B115">
-        <v>1861.36</v>
+        <v>1539.15</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2412,7 +2409,7 @@
         <v>117</v>
       </c>
       <c r="B116">
-        <v>1862.89</v>
+        <v>1540.11</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2420,7 +2417,7 @@
         <v>118</v>
       </c>
       <c r="B117">
-        <v>1864.42</v>
+        <v>1541.08</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2428,7 +2425,7 @@
         <v>119</v>
       </c>
       <c r="B118">
-        <v>1865.96</v>
+        <v>1542.05</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2436,7 +2433,7 @@
         <v>120</v>
       </c>
       <c r="B119">
-        <v>1867.49</v>
+        <v>1543.01</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2444,7 +2441,7 @@
         <v>121</v>
       </c>
       <c r="B120">
-        <v>1869.03</v>
+        <v>1543.98</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2452,7 +2449,7 @@
         <v>122</v>
       </c>
       <c r="B121">
-        <v>1870.57</v>
+        <v>1544.95</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2460,7 +2457,7 @@
         <v>123</v>
       </c>
       <c r="B122">
-        <v>1872.11</v>
+        <v>1545.92</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2468,7 +2465,7 @@
         <v>124</v>
       </c>
       <c r="B123">
-        <v>1873.65</v>
+        <v>1546.89</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2476,7 +2473,7 @@
         <v>125</v>
       </c>
       <c r="B124">
-        <v>1875.2</v>
+        <v>1547.86</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2484,7 +2481,7 @@
         <v>126</v>
       </c>
       <c r="B125">
-        <v>1876.74</v>
+        <v>1548.83</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2492,7 +2489,7 @@
         <v>127</v>
       </c>
       <c r="B126">
-        <v>1878.28</v>
+        <v>1549.81</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2500,7 +2497,7 @@
         <v>128</v>
       </c>
       <c r="B127">
-        <v>1879.83</v>
+        <v>1550.78</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2508,7 +2505,7 @@
         <v>129</v>
       </c>
       <c r="B128">
-        <v>1881.38</v>
+        <v>1551.75</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2516,7 +2513,7 @@
         <v>130</v>
       </c>
       <c r="B129">
-        <v>1882.93</v>
+        <v>1552.73</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2524,7 +2521,7 @@
         <v>131</v>
       </c>
       <c r="B130">
-        <v>1884.48</v>
+        <v>1553.7</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2532,7 +2529,7 @@
         <v>132</v>
       </c>
       <c r="B131">
-        <v>1886.03</v>
+        <v>1555.18</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2540,7 +2537,7 @@
         <v>133</v>
       </c>
       <c r="B132">
-        <v>1886.94</v>
+        <v>1556.67</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2548,7 +2545,7 @@
         <v>134</v>
       </c>
       <c r="B133">
-        <v>1887.84</v>
+        <v>1558.15</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2556,7 +2553,7 @@
         <v>135</v>
       </c>
       <c r="B134">
-        <v>1888.75</v>
+        <v>1559.64</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2564,7 +2561,7 @@
         <v>136</v>
       </c>
       <c r="B135">
-        <v>1889.66</v>
+        <v>1561.13</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2572,7 +2569,7 @@
         <v>137</v>
       </c>
       <c r="B136">
-        <v>1890.56</v>
+        <v>1562.61</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2580,7 +2577,7 @@
         <v>138</v>
       </c>
       <c r="B137">
-        <v>1891.47</v>
+        <v>1564.1</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2588,7 +2585,7 @@
         <v>139</v>
       </c>
       <c r="B138">
-        <v>1892.38</v>
+        <v>1565.6</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2596,7 +2593,7 @@
         <v>140</v>
       </c>
       <c r="B139">
-        <v>1893.29</v>
+        <v>1567.09</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2604,7 +2601,7 @@
         <v>141</v>
       </c>
       <c r="B140">
-        <v>1894.2</v>
+        <v>1568.59</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2612,7 +2609,7 @@
         <v>142</v>
       </c>
       <c r="B141">
-        <v>1895.11</v>
+        <v>1570.08</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2620,7 +2617,7 @@
         <v>143</v>
       </c>
       <c r="B142">
-        <v>1896.02</v>
+        <v>1571.58</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2628,7 +2625,7 @@
         <v>144</v>
       </c>
       <c r="B143">
-        <v>1896.93</v>
+        <v>1573.08</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2636,7 +2633,7 @@
         <v>145</v>
       </c>
       <c r="B144">
-        <v>1897.84</v>
+        <v>1574.58</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2644,7 +2641,7 @@
         <v>146</v>
       </c>
       <c r="B145">
-        <v>1898.75</v>
+        <v>1576.08</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2652,7 +2649,7 @@
         <v>147</v>
       </c>
       <c r="B146">
-        <v>1899.67</v>
+        <v>1577.59</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2660,7 +2657,7 @@
         <v>148</v>
       </c>
       <c r="B147">
-        <v>1900.58</v>
+        <v>1579.09</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2668,7 +2665,7 @@
         <v>149</v>
       </c>
       <c r="B148">
-        <v>1901.49</v>
+        <v>1580.6</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2676,7 +2673,7 @@
         <v>150</v>
       </c>
       <c r="B149">
-        <v>1902.41</v>
+        <v>1582.1</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2684,7 +2681,7 @@
         <v>151</v>
       </c>
       <c r="B150">
-        <v>1903.32</v>
+        <v>1583.61</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2692,7 +2689,7 @@
         <v>152</v>
       </c>
       <c r="B151">
-        <v>1904.23</v>
+        <v>1585.12</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2700,7 +2697,7 @@
         <v>153</v>
       </c>
       <c r="B152">
-        <v>1905.15</v>
+        <v>1586.64</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2708,7 +2705,7 @@
         <v>154</v>
       </c>
       <c r="B153">
-        <v>1906.06</v>
+        <v>1588.15</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2716,7 +2713,7 @@
         <v>155</v>
       </c>
       <c r="B154">
-        <v>1906.98</v>
+        <v>1589.67</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2724,7 +2721,7 @@
         <v>156</v>
       </c>
       <c r="B155">
-        <v>1907.9</v>
+        <v>1591.18</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2732,7 +2729,7 @@
         <v>157</v>
       </c>
       <c r="B156">
-        <v>1908.81</v>
+        <v>1592.7</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2740,7 +2737,7 @@
         <v>158</v>
       </c>
       <c r="B157">
-        <v>1909.73</v>
+        <v>1594.22</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2748,7 +2745,7 @@
         <v>159</v>
       </c>
       <c r="B158">
-        <v>1910.65</v>
+        <v>1595.74</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2756,7 +2753,7 @@
         <v>160</v>
       </c>
       <c r="B159">
-        <v>1911.56</v>
+        <v>1597.26</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2764,7 +2761,7 @@
         <v>161</v>
       </c>
       <c r="B160">
-        <v>1912.48</v>
+        <v>1598.79</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2772,7 +2769,7 @@
         <v>162</v>
       </c>
       <c r="B161">
-        <v>1913.4</v>
+        <v>1600.31</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2780,7 +2777,7 @@
         <v>163</v>
       </c>
       <c r="B162">
-        <v>1914.32</v>
+        <v>1601.05</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2788,7 +2785,7 @@
         <v>164</v>
       </c>
       <c r="B163">
-        <v>1915.08</v>
+        <v>1601.79</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2796,7 +2793,7 @@
         <v>165</v>
       </c>
       <c r="B164">
-        <v>1915.84</v>
+        <v>1602.54</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2804,7 +2801,7 @@
         <v>166</v>
       </c>
       <c r="B165">
-        <v>1916.6</v>
+        <v>1603.28</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2812,7 +2809,7 @@
         <v>167</v>
       </c>
       <c r="B166">
-        <v>1917.37</v>
+        <v>1604.02</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2820,7 +2817,7 @@
         <v>168</v>
       </c>
       <c r="B167">
-        <v>1918.13</v>
+        <v>1604.77</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2828,7 +2825,7 @@
         <v>169</v>
       </c>
       <c r="B168">
-        <v>1918.89</v>
+        <v>1605.51</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2836,7 +2833,7 @@
         <v>170</v>
       </c>
       <c r="B169">
-        <v>1919.66</v>
+        <v>1606.25</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2844,7 +2841,7 @@
         <v>171</v>
       </c>
       <c r="B170">
-        <v>1920.42</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2852,7 +2849,7 @@
         <v>172</v>
       </c>
       <c r="B171">
-        <v>1921.18</v>
+        <v>1607.74</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2860,7 +2857,7 @@
         <v>173</v>
       </c>
       <c r="B172">
-        <v>1921.95</v>
+        <v>1608.49</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2868,7 +2865,7 @@
         <v>174</v>
       </c>
       <c r="B173">
-        <v>1922.71</v>
+        <v>1609.23</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2876,7 +2873,7 @@
         <v>175</v>
       </c>
       <c r="B174">
-        <v>1923.48</v>
+        <v>1609.98</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2884,7 +2881,7 @@
         <v>176</v>
       </c>
       <c r="B175">
-        <v>1924.24</v>
+        <v>1610.73</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2892,7 +2889,7 @@
         <v>177</v>
       </c>
       <c r="B176">
-        <v>1925.01</v>
+        <v>1611.47</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2900,7 +2897,7 @@
         <v>178</v>
       </c>
       <c r="B177">
-        <v>1925.77</v>
+        <v>1612.22</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2908,7 +2905,7 @@
         <v>179</v>
       </c>
       <c r="B178">
-        <v>1926.54</v>
+        <v>1612.97</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2916,7 +2913,7 @@
         <v>180</v>
       </c>
       <c r="B179">
-        <v>1927.3</v>
+        <v>1613.72</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2924,7 +2921,7 @@
         <v>181</v>
       </c>
       <c r="B180">
-        <v>1928.07</v>
+        <v>1614.46</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2932,7 +2929,7 @@
         <v>182</v>
       </c>
       <c r="B181">
-        <v>1928.84</v>
+        <v>1615.21</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2940,7 +2937,7 @@
         <v>183</v>
       </c>
       <c r="B182">
-        <v>1929.6</v>
+        <v>1615.96</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2948,7 +2945,7 @@
         <v>184</v>
       </c>
       <c r="B183">
-        <v>1930.37</v>
+        <v>1616.71</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2956,7 +2953,7 @@
         <v>185</v>
       </c>
       <c r="B184">
-        <v>1931.14</v>
+        <v>1617.46</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2964,7 +2961,7 @@
         <v>186</v>
       </c>
       <c r="B185">
-        <v>1931.91</v>
+        <v>1618.21</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2972,7 +2969,7 @@
         <v>187</v>
       </c>
       <c r="B186">
-        <v>1932.68</v>
+        <v>1618.96</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2980,7 +2977,7 @@
         <v>188</v>
       </c>
       <c r="B187">
-        <v>1933.44</v>
+        <v>1619.71</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2988,7 +2985,7 @@
         <v>189</v>
       </c>
       <c r="B188">
-        <v>1934.21</v>
+        <v>1620.46</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2996,7 +2993,7 @@
         <v>190</v>
       </c>
       <c r="B189">
-        <v>1934.98</v>
+        <v>1621.21</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3004,7 +3001,7 @@
         <v>191</v>
       </c>
       <c r="B190">
-        <v>1935.75</v>
+        <v>1621.96</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3012,7 +3009,7 @@
         <v>192</v>
       </c>
       <c r="B191">
-        <v>1936.52</v>
+        <v>1622.71</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3020,7 +3017,7 @@
         <v>193</v>
       </c>
       <c r="B192">
-        <v>1937.29</v>
+        <v>1623.54</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3028,7 +3025,7 @@
         <v>194</v>
       </c>
       <c r="B193">
-        <v>1938.1</v>
+        <v>1624.37</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3036,7 +3033,7 @@
         <v>195</v>
       </c>
       <c r="B194">
-        <v>1938.91</v>
+        <v>1625.2</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3044,7 +3041,7 @@
         <v>196</v>
       </c>
       <c r="B195">
-        <v>1939.71</v>
+        <v>1626.04</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3052,7 +3049,7 @@
         <v>197</v>
       </c>
       <c r="B196">
-        <v>1940.52</v>
+        <v>1626.87</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3060,7 +3057,7 @@
         <v>198</v>
       </c>
       <c r="B197">
-        <v>1941.33</v>
+        <v>1627.7</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3068,7 +3065,7 @@
         <v>199</v>
       </c>
       <c r="B198">
-        <v>1942.14</v>
+        <v>1628.54</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3076,7 +3073,7 @@
         <v>200</v>
       </c>
       <c r="B199">
-        <v>1942.95</v>
+        <v>1629.37</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3084,7 +3081,7 @@
         <v>201</v>
       </c>
       <c r="B200">
-        <v>1943.76</v>
+        <v>1630.21</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3092,7 +3089,7 @@
         <v>202</v>
       </c>
       <c r="B201">
-        <v>1944.57</v>
+        <v>1631.04</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3100,7 +3097,7 @@
         <v>203</v>
       </c>
       <c r="B202">
-        <v>1945.38</v>
+        <v>1631.88</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3108,7 +3105,7 @@
         <v>204</v>
       </c>
       <c r="B203">
-        <v>1946.19</v>
+        <v>1632.71</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3116,7 +3113,7 @@
         <v>205</v>
       </c>
       <c r="B204">
-        <v>1947</v>
+        <v>1633.55</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3124,7 +3121,7 @@
         <v>206</v>
       </c>
       <c r="B205">
-        <v>1947.81</v>
+        <v>1634.38</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3132,7 +3129,7 @@
         <v>207</v>
       </c>
       <c r="B206">
-        <v>1948.62</v>
+        <v>1635.22</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3140,7 +3137,7 @@
         <v>208</v>
       </c>
       <c r="B207">
-        <v>1949.44</v>
+        <v>1636.06</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3148,7 +3145,7 @@
         <v>209</v>
       </c>
       <c r="B208">
-        <v>1950.25</v>
+        <v>1636.9</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3156,7 +3153,7 @@
         <v>210</v>
       </c>
       <c r="B209">
-        <v>1951.06</v>
+        <v>1637.74</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3164,7 +3161,7 @@
         <v>211</v>
       </c>
       <c r="B210">
-        <v>1951.87</v>
+        <v>1638.57</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3172,7 +3169,7 @@
         <v>212</v>
       </c>
       <c r="B211">
-        <v>1952.69</v>
+        <v>1639.41</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3180,7 +3177,7 @@
         <v>213</v>
       </c>
       <c r="B212">
-        <v>1953.5</v>
+        <v>1640.25</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3188,7 +3185,7 @@
         <v>214</v>
       </c>
       <c r="B213">
-        <v>1954.32</v>
+        <v>1641.09</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3196,7 +3193,7 @@
         <v>215</v>
       </c>
       <c r="B214">
-        <v>1955.13</v>
+        <v>1641.93</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3204,7 +3201,7 @@
         <v>216</v>
       </c>
       <c r="B215">
-        <v>1955.94</v>
+        <v>1642.77</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3212,7 +3209,7 @@
         <v>217</v>
       </c>
       <c r="B216">
-        <v>1956.76</v>
+        <v>1643.62</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3220,7 +3217,7 @@
         <v>218</v>
       </c>
       <c r="B217">
-        <v>1957.57</v>
+        <v>1644.46</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3228,7 +3225,7 @@
         <v>219</v>
       </c>
       <c r="B218">
-        <v>1958.39</v>
+        <v>1645.3</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3236,7 +3233,7 @@
         <v>220</v>
       </c>
       <c r="B219">
-        <v>1959.21</v>
+        <v>1646.14</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3244,7 +3241,7 @@
         <v>221</v>
       </c>
       <c r="B220">
-        <v>1960.02</v>
+        <v>1646.99</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3252,7 +3249,7 @@
         <v>222</v>
       </c>
       <c r="B221">
-        <v>1960.84</v>
+        <v>1647.83</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3260,7 +3257,7 @@
         <v>223</v>
       </c>
       <c r="B222">
-        <v>1961.66</v>
+        <v>1648.67</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3268,7 +3265,7 @@
         <v>224</v>
       </c>
       <c r="B223">
-        <v>1962.47</v>
+        <v>1649.67</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3276,7 +3273,7 @@
         <v>225</v>
       </c>
       <c r="B224">
-        <v>1963.04</v>
+        <v>1650.67</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3284,7 +3281,7 @@
         <v>226</v>
       </c>
       <c r="B225">
-        <v>1963.6</v>
+        <v>1651.68</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3292,7 +3289,7 @@
         <v>227</v>
       </c>
       <c r="B226">
-        <v>1964.17</v>
+        <v>1652.68</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3300,7 +3297,7 @@
         <v>228</v>
       </c>
       <c r="B227">
-        <v>1964.74</v>
+        <v>1653.68</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3308,7 +3305,7 @@
         <v>229</v>
       </c>
       <c r="B228">
-        <v>1965.31</v>
+        <v>1654.69</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3316,7 +3313,7 @@
         <v>230</v>
       </c>
       <c r="B229">
-        <v>1965.88</v>
+        <v>1655.69</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3324,7 +3321,7 @@
         <v>231</v>
       </c>
       <c r="B230">
-        <v>1966.44</v>
+        <v>1656.7</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3332,7 +3329,7 @@
         <v>232</v>
       </c>
       <c r="B231">
-        <v>1967.01</v>
+        <v>1657.7</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3340,7 +3337,7 @@
         <v>233</v>
       </c>
       <c r="B232">
-        <v>1967.58</v>
+        <v>1658.71</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3348,7 +3345,7 @@
         <v>234</v>
       </c>
       <c r="B233">
-        <v>1968.15</v>
+        <v>1659.72</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3356,7 +3353,7 @@
         <v>235</v>
       </c>
       <c r="B234">
-        <v>1968.72</v>
+        <v>1660.73</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3364,7 +3361,7 @@
         <v>236</v>
       </c>
       <c r="B235">
-        <v>1969.29</v>
+        <v>1661.73</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3372,7 +3369,7 @@
         <v>237</v>
       </c>
       <c r="B236">
-        <v>1969.86</v>
+        <v>1662.74</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3380,7 +3377,7 @@
         <v>238</v>
       </c>
       <c r="B237">
-        <v>1970.43</v>
+        <v>1663.75</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3388,7 +3385,7 @@
         <v>239</v>
       </c>
       <c r="B238">
-        <v>1971</v>
+        <v>1664.76</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3396,7 +3393,7 @@
         <v>240</v>
       </c>
       <c r="B239">
-        <v>1971.57</v>
+        <v>1665.78</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3404,7 +3401,7 @@
         <v>241</v>
       </c>
       <c r="B240">
-        <v>1972.14</v>
+        <v>1666.79</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3412,7 +3409,7 @@
         <v>242</v>
       </c>
       <c r="B241">
-        <v>1972.71</v>
+        <v>1667.8</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3420,7 +3417,7 @@
         <v>243</v>
       </c>
       <c r="B242">
-        <v>1973.28</v>
+        <v>1668.81</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3428,7 +3425,7 @@
         <v>244</v>
       </c>
       <c r="B243">
-        <v>1973.85</v>
+        <v>1669.83</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3436,7 +3433,7 @@
         <v>245</v>
       </c>
       <c r="B244">
-        <v>1974.42</v>
+        <v>1670.84</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3444,7 +3441,7 @@
         <v>246</v>
       </c>
       <c r="B245">
-        <v>1974.99</v>
+        <v>1671.85</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3452,7 +3449,7 @@
         <v>247</v>
       </c>
       <c r="B246">
-        <v>1975.56</v>
+        <v>1672.87</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3460,7 +3457,7 @@
         <v>248</v>
       </c>
       <c r="B247">
-        <v>1976.13</v>
+        <v>1673.89</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3468,7 +3465,7 @@
         <v>249</v>
       </c>
       <c r="B248">
-        <v>1976.7</v>
+        <v>1674.9</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3476,7 +3473,7 @@
         <v>250</v>
       </c>
       <c r="B249">
-        <v>1977.27</v>
+        <v>1675.92</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3484,7 +3481,7 @@
         <v>251</v>
       </c>
       <c r="B250">
-        <v>1977.84</v>
+        <v>1676.94</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3492,7 +3489,7 @@
         <v>252</v>
       </c>
       <c r="B251">
-        <v>1978.42</v>
+        <v>1677.96</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3500,7 +3497,7 @@
         <v>253</v>
       </c>
       <c r="B252">
-        <v>1978.99</v>
+        <v>1678.98</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3508,7 +3505,7 @@
         <v>254</v>
       </c>
       <c r="B253">
-        <v>1979.56</v>
+        <v>1679.99</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3516,7 +3513,7 @@
         <v>255</v>
       </c>
       <c r="B254">
-        <v>1980.13</v>
+        <v>1681.48</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3524,7 +3521,7 @@
         <v>256</v>
       </c>
       <c r="B255">
-        <v>1980.33</v>
+        <v>1682.98</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3532,7 +3529,7 @@
         <v>257</v>
       </c>
       <c r="B256">
-        <v>1980.53</v>
+        <v>1684.47</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3540,7 +3537,7 @@
         <v>258</v>
       </c>
       <c r="B257">
-        <v>1980.72</v>
+        <v>1685.97</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3548,7 +3545,7 @@
         <v>259</v>
       </c>
       <c r="B258">
-        <v>1980.92</v>
+        <v>1687.47</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3556,7 +3553,7 @@
         <v>260</v>
       </c>
       <c r="B259">
-        <v>1981.12</v>
+        <v>1688.97</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3564,7 +3561,7 @@
         <v>261</v>
       </c>
       <c r="B260">
-        <v>1981.32</v>
+        <v>1690.47</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3572,7 +3569,7 @@
         <v>262</v>
       </c>
       <c r="B261">
-        <v>1981.51</v>
+        <v>1691.97</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3580,7 +3577,7 @@
         <v>263</v>
       </c>
       <c r="B262">
-        <v>1981.71</v>
+        <v>1693.47</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3588,7 +3585,7 @@
         <v>264</v>
       </c>
       <c r="B263">
-        <v>1981.91</v>
+        <v>1694.98</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3596,7 +3593,7 @@
         <v>265</v>
       </c>
       <c r="B264">
-        <v>1982.11</v>
+        <v>1696.48</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3604,7 +3601,7 @@
         <v>266</v>
       </c>
       <c r="B265">
-        <v>1982.31</v>
+        <v>1697.99</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3612,7 +3609,7 @@
         <v>267</v>
       </c>
       <c r="B266">
-        <v>1982.5</v>
+        <v>1699.5</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3620,7 +3617,7 @@
         <v>268</v>
       </c>
       <c r="B267">
-        <v>1982.7</v>
+        <v>1701.01</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3628,7 +3625,7 @@
         <v>269</v>
       </c>
       <c r="B268">
-        <v>1982.9</v>
+        <v>1702.52</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3636,7 +3633,7 @@
         <v>270</v>
       </c>
       <c r="B269">
-        <v>1983.1</v>
+        <v>1704.03</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3644,7 +3641,7 @@
         <v>271</v>
       </c>
       <c r="B270">
-        <v>1983.3</v>
+        <v>1705.55</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3652,7 +3649,7 @@
         <v>272</v>
       </c>
       <c r="B271">
-        <v>1983.49</v>
+        <v>1707.06</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3660,7 +3657,7 @@
         <v>273</v>
       </c>
       <c r="B272">
-        <v>1983.69</v>
+        <v>1708.58</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3668,7 +3665,7 @@
         <v>274</v>
       </c>
       <c r="B273">
-        <v>1983.89</v>
+        <v>1710.1</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3676,7 +3673,7 @@
         <v>275</v>
       </c>
       <c r="B274">
-        <v>1984.09</v>
+        <v>1711.61</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3684,7 +3681,7 @@
         <v>276</v>
       </c>
       <c r="B275">
-        <v>1984.29</v>
+        <v>1713.14</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -3692,7 +3689,7 @@
         <v>277</v>
       </c>
       <c r="B276">
-        <v>1984.48</v>
+        <v>1714.66</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -3700,7 +3697,7 @@
         <v>278</v>
       </c>
       <c r="B277">
-        <v>1984.68</v>
+        <v>1716.18</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3708,7 +3705,7 @@
         <v>279</v>
       </c>
       <c r="B278">
-        <v>1984.88</v>
+        <v>1717.71</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3716,7 +3713,7 @@
         <v>280</v>
       </c>
       <c r="B279">
-        <v>1985.08</v>
+        <v>1719.23</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -3724,7 +3721,7 @@
         <v>281</v>
       </c>
       <c r="B280">
-        <v>1985.28</v>
+        <v>1720.76</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -3732,7 +3729,7 @@
         <v>282</v>
       </c>
       <c r="B281">
-        <v>1985.48</v>
+        <v>1722.29</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -3740,7 +3737,7 @@
         <v>283</v>
       </c>
       <c r="B282">
-        <v>1985.67</v>
+        <v>1723.82</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -3748,7 +3745,7 @@
         <v>284</v>
       </c>
       <c r="B283">
-        <v>1985.87</v>
+        <v>1725.35</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -3756,7 +3753,7 @@
         <v>285</v>
       </c>
       <c r="B284">
-        <v>1986.07</v>
+        <v>1726.62</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -3764,7 +3761,7 @@
         <v>286</v>
       </c>
       <c r="B285">
-        <v>1987.9</v>
+        <v>1727.88</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -3772,7 +3769,7 @@
         <v>287</v>
       </c>
       <c r="B286">
-        <v>1989.74</v>
+        <v>1729.15</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -3780,7 +3777,7 @@
         <v>288</v>
       </c>
       <c r="B287">
-        <v>1991.57</v>
+        <v>1730.42</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -3788,7 +3785,7 @@
         <v>289</v>
       </c>
       <c r="B288">
-        <v>1993.41</v>
+        <v>1731.69</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -3796,7 +3793,7 @@
         <v>290</v>
       </c>
       <c r="B289">
-        <v>1995.25</v>
+        <v>1732.96</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -3804,7 +3801,7 @@
         <v>291</v>
       </c>
       <c r="B290">
-        <v>1997.09</v>
+        <v>1734.23</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -3812,7 +3809,7 @@
         <v>292</v>
       </c>
       <c r="B291">
-        <v>1998.93</v>
+        <v>1735.5</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -3820,7 +3817,7 @@
         <v>293</v>
       </c>
       <c r="B292">
-        <v>2000.78</v>
+        <v>1736.78</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -3828,7 +3825,7 @@
         <v>294</v>
       </c>
       <c r="B293">
-        <v>2002.62</v>
+        <v>1738.05</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -3836,7 +3833,7 @@
         <v>295</v>
       </c>
       <c r="B294">
-        <v>2004.47</v>
+        <v>1739.33</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -3844,7 +3841,7 @@
         <v>296</v>
       </c>
       <c r="B295">
-        <v>2006.32</v>
+        <v>1740.6</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -3852,7 +3849,7 @@
         <v>297</v>
       </c>
       <c r="B296">
-        <v>2008.17</v>
+        <v>1741.88</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -3860,7 +3857,7 @@
         <v>298</v>
       </c>
       <c r="B297">
-        <v>2010.02</v>
+        <v>1743.16</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -3868,7 +3865,7 @@
         <v>299</v>
       </c>
       <c r="B298">
-        <v>2011.88</v>
+        <v>1744.44</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -3876,7 +3873,7 @@
         <v>300</v>
       </c>
       <c r="B299">
-        <v>2013.73</v>
+        <v>1745.72</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -3884,7 +3881,7 @@
         <v>301</v>
       </c>
       <c r="B300">
-        <v>2015.59</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -3892,7 +3889,7 @@
         <v>302</v>
       </c>
       <c r="B301">
-        <v>2017.45</v>
+        <v>1748.28</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -3900,7 +3897,7 @@
         <v>303</v>
       </c>
       <c r="B302">
-        <v>2019.31</v>
+        <v>1749.56</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -3908,7 +3905,7 @@
         <v>304</v>
       </c>
       <c r="B303">
-        <v>2021.18</v>
+        <v>1750.85</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -3916,7 +3913,7 @@
         <v>305</v>
       </c>
       <c r="B304">
-        <v>2023.04</v>
+        <v>1752.13</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -3924,7 +3921,7 @@
         <v>306</v>
       </c>
       <c r="B305">
-        <v>2024.91</v>
+        <v>1753.42</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -3932,7 +3929,7 @@
         <v>307</v>
       </c>
       <c r="B306">
-        <v>2026.77</v>
+        <v>1754.71</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -3940,7 +3937,7 @@
         <v>308</v>
       </c>
       <c r="B307">
-        <v>2028.64</v>
+        <v>1755.99</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -3948,7 +3945,7 @@
         <v>309</v>
       </c>
       <c r="B308">
-        <v>2030.52</v>
+        <v>1757.28</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -3956,7 +3953,7 @@
         <v>310</v>
       </c>
       <c r="B309">
-        <v>2032.39</v>
+        <v>1758.57</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -3964,7 +3961,7 @@
         <v>311</v>
       </c>
       <c r="B310">
-        <v>2034.26</v>
+        <v>1759.86</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -3972,7 +3969,7 @@
         <v>312</v>
       </c>
       <c r="B311">
-        <v>2036.14</v>
+        <v>1761.15</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -3980,7 +3977,7 @@
         <v>313</v>
       </c>
       <c r="B312">
-        <v>2038.02</v>
+        <v>1762.45</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -3988,7 +3985,7 @@
         <v>314</v>
       </c>
       <c r="B313">
-        <v>2039.9</v>
+        <v>1763.74</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -3996,7 +3993,7 @@
         <v>315</v>
       </c>
       <c r="B314">
-        <v>2041.78</v>
+        <v>1765.03</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -4004,7 +4001,7 @@
         <v>316</v>
       </c>
       <c r="B315">
-        <v>2043.67</v>
+        <v>1766.43</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -4012,7 +4009,7 @@
         <v>317</v>
       </c>
       <c r="B316">
-        <v>2049.05</v>
+        <v>1767.82</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -4020,7 +4017,7 @@
         <v>318</v>
       </c>
       <c r="B317">
-        <v>2054.44</v>
+        <v>1769.22</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -4028,7 +4025,7 @@
         <v>319</v>
       </c>
       <c r="B318">
-        <v>2059.84</v>
+        <v>1770.62</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -4036,7 +4033,7 @@
         <v>320</v>
       </c>
       <c r="B319">
-        <v>2065.26</v>
+        <v>1772.02</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -4044,7 +4041,7 @@
         <v>321</v>
       </c>
       <c r="B320">
-        <v>2070.69</v>
+        <v>1773.42</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -4052,7 +4049,7 @@
         <v>322</v>
       </c>
       <c r="B321">
-        <v>2076.14</v>
+        <v>1774.82</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -4060,7 +4057,7 @@
         <v>323</v>
       </c>
       <c r="B322">
-        <v>2081.6</v>
+        <v>1776.23</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -4068,7 +4065,7 @@
         <v>324</v>
       </c>
       <c r="B323">
-        <v>2087.07</v>
+        <v>1777.63</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -4076,7 +4073,7 @@
         <v>325</v>
       </c>
       <c r="B324">
-        <v>2092.56</v>
+        <v>1779.04</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -4084,7 +4081,7 @@
         <v>326</v>
       </c>
       <c r="B325">
-        <v>2098.07</v>
+        <v>1780.45</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -4092,7 +4089,7 @@
         <v>327</v>
       </c>
       <c r="B326">
-        <v>2103.59</v>
+        <v>1781.85</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4100,7 +4097,7 @@
         <v>328</v>
       </c>
       <c r="B327">
-        <v>2109.12</v>
+        <v>1783.26</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -4108,7 +4105,7 @@
         <v>329</v>
       </c>
       <c r="B328">
-        <v>2114.67</v>
+        <v>1784.67</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -4116,7 +4113,7 @@
         <v>330</v>
       </c>
       <c r="B329">
-        <v>2120.23</v>
+        <v>1786.08</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -4124,7 +4121,7 @@
         <v>331</v>
       </c>
       <c r="B330">
-        <v>2125.81</v>
+        <v>1787.5</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -4132,7 +4129,7 @@
         <v>332</v>
       </c>
       <c r="B331">
-        <v>2131.4</v>
+        <v>1788.91</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -4140,7 +4137,7 @@
         <v>333</v>
       </c>
       <c r="B332">
-        <v>2137.01</v>
+        <v>1790.33</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -4148,7 +4145,7 @@
         <v>334</v>
       </c>
       <c r="B333">
-        <v>2142.63</v>
+        <v>1791.74</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -4156,7 +4153,7 @@
         <v>335</v>
       </c>
       <c r="B334">
-        <v>2148.27</v>
+        <v>1793.16</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -4164,7 +4161,7 @@
         <v>336</v>
       </c>
       <c r="B335">
-        <v>2153.92</v>
+        <v>1794.58</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -4172,7 +4169,7 @@
         <v>337</v>
       </c>
       <c r="B336">
-        <v>2159.58</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -4180,7 +4177,7 @@
         <v>338</v>
       </c>
       <c r="B337">
-        <v>2165.26</v>
+        <v>1797.42</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -4188,7 +4185,7 @@
         <v>339</v>
       </c>
       <c r="B338">
-        <v>2170.96</v>
+        <v>1798.84</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -4196,7 +4193,7 @@
         <v>340</v>
       </c>
       <c r="B339">
-        <v>2176.67</v>
+        <v>1800.26</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -4204,7 +4201,7 @@
         <v>341</v>
       </c>
       <c r="B340">
-        <v>2182.4</v>
+        <v>1801.68</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -4212,7 +4209,7 @@
         <v>342</v>
       </c>
       <c r="B341">
-        <v>2188.14</v>
+        <v>1803.11</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -4220,7 +4217,7 @@
         <v>343</v>
       </c>
       <c r="B342">
-        <v>2193.89</v>
+        <v>1804.54</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -4228,7 +4225,7 @@
         <v>344</v>
       </c>
       <c r="B343">
-        <v>2199.66</v>
+        <v>1805.96</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4236,7 +4233,7 @@
         <v>345</v>
       </c>
       <c r="B344">
-        <v>2205.45</v>
+        <v>1807.39</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -4244,7 +4241,7 @@
         <v>346</v>
       </c>
       <c r="B345">
-        <v>2211.25</v>
+        <v>1808.14</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -4252,7 +4249,7 @@
         <v>347</v>
       </c>
       <c r="B346">
-        <v>2212.1</v>
+        <v>1808.9</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -4260,7 +4257,7 @@
         <v>348</v>
       </c>
       <c r="B347">
-        <v>2212.95</v>
+        <v>1809.65</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -4268,7 +4265,7 @@
         <v>349</v>
       </c>
       <c r="B348">
-        <v>2213.8</v>
+        <v>1810.4</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -4276,7 +4273,7 @@
         <v>350</v>
       </c>
       <c r="B349">
-        <v>2214.66</v>
+        <v>1811.16</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -4284,7 +4281,7 @@
         <v>351</v>
       </c>
       <c r="B350">
-        <v>2215.51</v>
+        <v>1811.91</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -4292,7 +4289,7 @@
         <v>352</v>
       </c>
       <c r="B351">
-        <v>2216.36</v>
+        <v>1812.67</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -4300,7 +4297,7 @@
         <v>353</v>
       </c>
       <c r="B352">
-        <v>2217.21</v>
+        <v>1813.42</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -4308,7 +4305,7 @@
         <v>354</v>
       </c>
       <c r="B353">
-        <v>2218.07</v>
+        <v>1814.18</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -4316,7 +4313,7 @@
         <v>355</v>
       </c>
       <c r="B354">
-        <v>2218.92</v>
+        <v>1814.94</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -4324,7 +4321,7 @@
         <v>356</v>
       </c>
       <c r="B355">
-        <v>2219.78</v>
+        <v>1815.69</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -4332,7 +4329,7 @@
         <v>357</v>
       </c>
       <c r="B356">
-        <v>2220.63</v>
+        <v>1816.45</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -4340,7 +4337,7 @@
         <v>358</v>
       </c>
       <c r="B357">
-        <v>2221.48</v>
+        <v>1817.21</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -4348,7 +4345,7 @@
         <v>359</v>
       </c>
       <c r="B358">
-        <v>2222.34</v>
+        <v>1817.96</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -4356,7 +4353,7 @@
         <v>360</v>
       </c>
       <c r="B359">
-        <v>2223.19</v>
+        <v>1818.72</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -4364,7 +4361,7 @@
         <v>361</v>
       </c>
       <c r="B360">
-        <v>2224.05</v>
+        <v>1819.48</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -4372,7 +4369,7 @@
         <v>362</v>
       </c>
       <c r="B361">
-        <v>2224.91</v>
+        <v>1820.24</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -4380,7 +4377,7 @@
         <v>363</v>
       </c>
       <c r="B362">
-        <v>2225.76</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -4388,7 +4385,7 @@
         <v>364</v>
       </c>
       <c r="B363">
-        <v>2226.62</v>
+        <v>1821.75</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -4396,7 +4393,7 @@
         <v>365</v>
       </c>
       <c r="B364">
-        <v>2227.48</v>
+        <v>1822.51</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -4404,7 +4401,7 @@
         <v>366</v>
       </c>
       <c r="B365">
-        <v>2228.33</v>
+        <v>1823.27</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -4412,15 +4409,7 @@
         <v>367</v>
       </c>
       <c r="B366">
-        <v>2229.19</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2">
-      <c r="A367" t="s">
-        <v>368</v>
-      </c>
-      <c r="B367">
-        <v>2230.05</v>
+        <v>1824.03</v>
       </c>
     </row>
   </sheetData>

--- a/2/1/UF-IVP diaria 1984 - Diaria.xlsx
+++ b/2/1/UF-IVP diaria 1984 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="369">
   <si>
     <t>Serie</t>
   </si>
@@ -25,1099 +25,1102 @@
     <t>Indice de valor promedio (IVP)</t>
   </si>
   <si>
-    <t>01-01-1983</t>
-  </si>
-  <si>
-    <t>02-01-1983</t>
-  </si>
-  <si>
-    <t>03-01-1983</t>
-  </si>
-  <si>
-    <t>04-01-1983</t>
-  </si>
-  <si>
-    <t>05-01-1983</t>
-  </si>
-  <si>
-    <t>06-01-1983</t>
-  </si>
-  <si>
-    <t>07-01-1983</t>
-  </si>
-  <si>
-    <t>08-01-1983</t>
-  </si>
-  <si>
-    <t>09-01-1983</t>
-  </si>
-  <si>
-    <t>10-01-1983</t>
-  </si>
-  <si>
-    <t>11-01-1983</t>
-  </si>
-  <si>
-    <t>12-01-1983</t>
-  </si>
-  <si>
-    <t>13-01-1983</t>
-  </si>
-  <si>
-    <t>14-01-1983</t>
-  </si>
-  <si>
-    <t>15-01-1983</t>
-  </si>
-  <si>
-    <t>16-01-1983</t>
-  </si>
-  <si>
-    <t>17-01-1983</t>
-  </si>
-  <si>
-    <t>18-01-1983</t>
-  </si>
-  <si>
-    <t>19-01-1983</t>
-  </si>
-  <si>
-    <t>20-01-1983</t>
-  </si>
-  <si>
-    <t>21-01-1983</t>
-  </si>
-  <si>
-    <t>22-01-1983</t>
-  </si>
-  <si>
-    <t>23-01-1983</t>
-  </si>
-  <si>
-    <t>24-01-1983</t>
-  </si>
-  <si>
-    <t>25-01-1983</t>
-  </si>
-  <si>
-    <t>26-01-1983</t>
-  </si>
-  <si>
-    <t>27-01-1983</t>
-  </si>
-  <si>
-    <t>28-01-1983</t>
-  </si>
-  <si>
-    <t>29-01-1983</t>
-  </si>
-  <si>
-    <t>30-01-1983</t>
-  </si>
-  <si>
-    <t>31-01-1983</t>
-  </si>
-  <si>
-    <t>01-02-1983</t>
-  </si>
-  <si>
-    <t>02-02-1983</t>
-  </si>
-  <si>
-    <t>03-02-1983</t>
-  </si>
-  <si>
-    <t>04-02-1983</t>
-  </si>
-  <si>
-    <t>05-02-1983</t>
-  </si>
-  <si>
-    <t>06-02-1983</t>
-  </si>
-  <si>
-    <t>07-02-1983</t>
-  </si>
-  <si>
-    <t>08-02-1983</t>
-  </si>
-  <si>
-    <t>09-02-1983</t>
-  </si>
-  <si>
-    <t>10-02-1983</t>
-  </si>
-  <si>
-    <t>11-02-1983</t>
-  </si>
-  <si>
-    <t>12-02-1983</t>
-  </si>
-  <si>
-    <t>13-02-1983</t>
-  </si>
-  <si>
-    <t>14-02-1983</t>
-  </si>
-  <si>
-    <t>15-02-1983</t>
-  </si>
-  <si>
-    <t>16-02-1983</t>
-  </si>
-  <si>
-    <t>17-02-1983</t>
-  </si>
-  <si>
-    <t>18-02-1983</t>
-  </si>
-  <si>
-    <t>19-02-1983</t>
-  </si>
-  <si>
-    <t>20-02-1983</t>
-  </si>
-  <si>
-    <t>21-02-1983</t>
-  </si>
-  <si>
-    <t>22-02-1983</t>
-  </si>
-  <si>
-    <t>23-02-1983</t>
-  </si>
-  <si>
-    <t>24-02-1983</t>
-  </si>
-  <si>
-    <t>25-02-1983</t>
-  </si>
-  <si>
-    <t>26-02-1983</t>
-  </si>
-  <si>
-    <t>27-02-1983</t>
-  </si>
-  <si>
-    <t>28-02-1983</t>
-  </si>
-  <si>
-    <t>01-03-1983</t>
-  </si>
-  <si>
-    <t>02-03-1983</t>
-  </si>
-  <si>
-    <t>03-03-1983</t>
-  </si>
-  <si>
-    <t>04-03-1983</t>
-  </si>
-  <si>
-    <t>05-03-1983</t>
-  </si>
-  <si>
-    <t>06-03-1983</t>
-  </si>
-  <si>
-    <t>07-03-1983</t>
-  </si>
-  <si>
-    <t>08-03-1983</t>
-  </si>
-  <si>
-    <t>09-03-1983</t>
-  </si>
-  <si>
-    <t>10-03-1983</t>
-  </si>
-  <si>
-    <t>11-03-1983</t>
-  </si>
-  <si>
-    <t>12-03-1983</t>
-  </si>
-  <si>
-    <t>13-03-1983</t>
-  </si>
-  <si>
-    <t>14-03-1983</t>
-  </si>
-  <si>
-    <t>15-03-1983</t>
-  </si>
-  <si>
-    <t>16-03-1983</t>
-  </si>
-  <si>
-    <t>17-03-1983</t>
-  </si>
-  <si>
-    <t>18-03-1983</t>
-  </si>
-  <si>
-    <t>19-03-1983</t>
-  </si>
-  <si>
-    <t>20-03-1983</t>
-  </si>
-  <si>
-    <t>21-03-1983</t>
-  </si>
-  <si>
-    <t>22-03-1983</t>
-  </si>
-  <si>
-    <t>23-03-1983</t>
-  </si>
-  <si>
-    <t>24-03-1983</t>
-  </si>
-  <si>
-    <t>25-03-1983</t>
-  </si>
-  <si>
-    <t>26-03-1983</t>
-  </si>
-  <si>
-    <t>27-03-1983</t>
-  </si>
-  <si>
-    <t>28-03-1983</t>
-  </si>
-  <si>
-    <t>29-03-1983</t>
-  </si>
-  <si>
-    <t>30-03-1983</t>
-  </si>
-  <si>
-    <t>31-03-1983</t>
-  </si>
-  <si>
-    <t>01-04-1983</t>
-  </si>
-  <si>
-    <t>02-04-1983</t>
-  </si>
-  <si>
-    <t>03-04-1983</t>
-  </si>
-  <si>
-    <t>04-04-1983</t>
-  </si>
-  <si>
-    <t>05-04-1983</t>
-  </si>
-  <si>
-    <t>06-04-1983</t>
-  </si>
-  <si>
-    <t>07-04-1983</t>
-  </si>
-  <si>
-    <t>08-04-1983</t>
-  </si>
-  <si>
-    <t>09-04-1983</t>
-  </si>
-  <si>
-    <t>10-04-1983</t>
-  </si>
-  <si>
-    <t>11-04-1983</t>
-  </si>
-  <si>
-    <t>12-04-1983</t>
-  </si>
-  <si>
-    <t>13-04-1983</t>
-  </si>
-  <si>
-    <t>14-04-1983</t>
-  </si>
-  <si>
-    <t>15-04-1983</t>
-  </si>
-  <si>
-    <t>16-04-1983</t>
-  </si>
-  <si>
-    <t>17-04-1983</t>
-  </si>
-  <si>
-    <t>18-04-1983</t>
-  </si>
-  <si>
-    <t>19-04-1983</t>
-  </si>
-  <si>
-    <t>20-04-1983</t>
-  </si>
-  <si>
-    <t>21-04-1983</t>
-  </si>
-  <si>
-    <t>22-04-1983</t>
-  </si>
-  <si>
-    <t>23-04-1983</t>
-  </si>
-  <si>
-    <t>24-04-1983</t>
-  </si>
-  <si>
-    <t>25-04-1983</t>
-  </si>
-  <si>
-    <t>26-04-1983</t>
-  </si>
-  <si>
-    <t>27-04-1983</t>
-  </si>
-  <si>
-    <t>28-04-1983</t>
-  </si>
-  <si>
-    <t>29-04-1983</t>
-  </si>
-  <si>
-    <t>30-04-1983</t>
-  </si>
-  <si>
-    <t>01-05-1983</t>
-  </si>
-  <si>
-    <t>02-05-1983</t>
-  </si>
-  <si>
-    <t>03-05-1983</t>
-  </si>
-  <si>
-    <t>04-05-1983</t>
-  </si>
-  <si>
-    <t>05-05-1983</t>
-  </si>
-  <si>
-    <t>06-05-1983</t>
-  </si>
-  <si>
-    <t>07-05-1983</t>
-  </si>
-  <si>
-    <t>08-05-1983</t>
-  </si>
-  <si>
-    <t>09-05-1983</t>
-  </si>
-  <si>
-    <t>10-05-1983</t>
-  </si>
-  <si>
-    <t>11-05-1983</t>
-  </si>
-  <si>
-    <t>12-05-1983</t>
-  </si>
-  <si>
-    <t>13-05-1983</t>
-  </si>
-  <si>
-    <t>14-05-1983</t>
-  </si>
-  <si>
-    <t>15-05-1983</t>
-  </si>
-  <si>
-    <t>16-05-1983</t>
-  </si>
-  <si>
-    <t>17-05-1983</t>
-  </si>
-  <si>
-    <t>18-05-1983</t>
-  </si>
-  <si>
-    <t>19-05-1983</t>
-  </si>
-  <si>
-    <t>20-05-1983</t>
-  </si>
-  <si>
-    <t>21-05-1983</t>
-  </si>
-  <si>
-    <t>22-05-1983</t>
-  </si>
-  <si>
-    <t>23-05-1983</t>
-  </si>
-  <si>
-    <t>24-05-1983</t>
-  </si>
-  <si>
-    <t>25-05-1983</t>
-  </si>
-  <si>
-    <t>26-05-1983</t>
-  </si>
-  <si>
-    <t>27-05-1983</t>
-  </si>
-  <si>
-    <t>28-05-1983</t>
-  </si>
-  <si>
-    <t>29-05-1983</t>
-  </si>
-  <si>
-    <t>30-05-1983</t>
-  </si>
-  <si>
-    <t>31-05-1983</t>
-  </si>
-  <si>
-    <t>01-06-1983</t>
-  </si>
-  <si>
-    <t>02-06-1983</t>
-  </si>
-  <si>
-    <t>03-06-1983</t>
-  </si>
-  <si>
-    <t>04-06-1983</t>
-  </si>
-  <si>
-    <t>05-06-1983</t>
-  </si>
-  <si>
-    <t>06-06-1983</t>
-  </si>
-  <si>
-    <t>07-06-1983</t>
-  </si>
-  <si>
-    <t>08-06-1983</t>
-  </si>
-  <si>
-    <t>09-06-1983</t>
-  </si>
-  <si>
-    <t>10-06-1983</t>
-  </si>
-  <si>
-    <t>11-06-1983</t>
-  </si>
-  <si>
-    <t>12-06-1983</t>
-  </si>
-  <si>
-    <t>13-06-1983</t>
-  </si>
-  <si>
-    <t>14-06-1983</t>
-  </si>
-  <si>
-    <t>15-06-1983</t>
-  </si>
-  <si>
-    <t>16-06-1983</t>
-  </si>
-  <si>
-    <t>17-06-1983</t>
-  </si>
-  <si>
-    <t>18-06-1983</t>
-  </si>
-  <si>
-    <t>19-06-1983</t>
-  </si>
-  <si>
-    <t>20-06-1983</t>
-  </si>
-  <si>
-    <t>21-06-1983</t>
-  </si>
-  <si>
-    <t>22-06-1983</t>
-  </si>
-  <si>
-    <t>23-06-1983</t>
-  </si>
-  <si>
-    <t>24-06-1983</t>
-  </si>
-  <si>
-    <t>25-06-1983</t>
-  </si>
-  <si>
-    <t>26-06-1983</t>
-  </si>
-  <si>
-    <t>27-06-1983</t>
-  </si>
-  <si>
-    <t>28-06-1983</t>
-  </si>
-  <si>
-    <t>29-06-1983</t>
-  </si>
-  <si>
-    <t>30-06-1983</t>
-  </si>
-  <si>
-    <t>01-07-1983</t>
-  </si>
-  <si>
-    <t>02-07-1983</t>
-  </si>
-  <si>
-    <t>03-07-1983</t>
-  </si>
-  <si>
-    <t>04-07-1983</t>
-  </si>
-  <si>
-    <t>05-07-1983</t>
-  </si>
-  <si>
-    <t>06-07-1983</t>
-  </si>
-  <si>
-    <t>07-07-1983</t>
-  </si>
-  <si>
-    <t>08-07-1983</t>
-  </si>
-  <si>
-    <t>09-07-1983</t>
-  </si>
-  <si>
-    <t>10-07-1983</t>
-  </si>
-  <si>
-    <t>11-07-1983</t>
-  </si>
-  <si>
-    <t>12-07-1983</t>
-  </si>
-  <si>
-    <t>13-07-1983</t>
-  </si>
-  <si>
-    <t>14-07-1983</t>
-  </si>
-  <si>
-    <t>15-07-1983</t>
-  </si>
-  <si>
-    <t>16-07-1983</t>
-  </si>
-  <si>
-    <t>17-07-1983</t>
-  </si>
-  <si>
-    <t>18-07-1983</t>
-  </si>
-  <si>
-    <t>19-07-1983</t>
-  </si>
-  <si>
-    <t>20-07-1983</t>
-  </si>
-  <si>
-    <t>21-07-1983</t>
-  </si>
-  <si>
-    <t>22-07-1983</t>
-  </si>
-  <si>
-    <t>23-07-1983</t>
-  </si>
-  <si>
-    <t>24-07-1983</t>
-  </si>
-  <si>
-    <t>25-07-1983</t>
-  </si>
-  <si>
-    <t>26-07-1983</t>
-  </si>
-  <si>
-    <t>27-07-1983</t>
-  </si>
-  <si>
-    <t>28-07-1983</t>
-  </si>
-  <si>
-    <t>29-07-1983</t>
-  </si>
-  <si>
-    <t>30-07-1983</t>
-  </si>
-  <si>
-    <t>31-07-1983</t>
-  </si>
-  <si>
-    <t>01-08-1983</t>
-  </si>
-  <si>
-    <t>02-08-1983</t>
-  </si>
-  <si>
-    <t>03-08-1983</t>
-  </si>
-  <si>
-    <t>04-08-1983</t>
-  </si>
-  <si>
-    <t>05-08-1983</t>
-  </si>
-  <si>
-    <t>06-08-1983</t>
-  </si>
-  <si>
-    <t>07-08-1983</t>
-  </si>
-  <si>
-    <t>08-08-1983</t>
-  </si>
-  <si>
-    <t>09-08-1983</t>
-  </si>
-  <si>
-    <t>10-08-1983</t>
-  </si>
-  <si>
-    <t>11-08-1983</t>
-  </si>
-  <si>
-    <t>12-08-1983</t>
-  </si>
-  <si>
-    <t>13-08-1983</t>
-  </si>
-  <si>
-    <t>14-08-1983</t>
-  </si>
-  <si>
-    <t>15-08-1983</t>
-  </si>
-  <si>
-    <t>16-08-1983</t>
-  </si>
-  <si>
-    <t>17-08-1983</t>
-  </si>
-  <si>
-    <t>18-08-1983</t>
-  </si>
-  <si>
-    <t>19-08-1983</t>
-  </si>
-  <si>
-    <t>20-08-1983</t>
-  </si>
-  <si>
-    <t>21-08-1983</t>
-  </si>
-  <si>
-    <t>22-08-1983</t>
-  </si>
-  <si>
-    <t>23-08-1983</t>
-  </si>
-  <si>
-    <t>24-08-1983</t>
-  </si>
-  <si>
-    <t>25-08-1983</t>
-  </si>
-  <si>
-    <t>26-08-1983</t>
-  </si>
-  <si>
-    <t>27-08-1983</t>
-  </si>
-  <si>
-    <t>28-08-1983</t>
-  </si>
-  <si>
-    <t>29-08-1983</t>
-  </si>
-  <si>
-    <t>30-08-1983</t>
-  </si>
-  <si>
-    <t>31-08-1983</t>
-  </si>
-  <si>
-    <t>01-09-1983</t>
-  </si>
-  <si>
-    <t>02-09-1983</t>
-  </si>
-  <si>
-    <t>03-09-1983</t>
-  </si>
-  <si>
-    <t>04-09-1983</t>
-  </si>
-  <si>
-    <t>05-09-1983</t>
-  </si>
-  <si>
-    <t>06-09-1983</t>
-  </si>
-  <si>
-    <t>07-09-1983</t>
-  </si>
-  <si>
-    <t>08-09-1983</t>
-  </si>
-  <si>
-    <t>09-09-1983</t>
-  </si>
-  <si>
-    <t>10-09-1983</t>
-  </si>
-  <si>
-    <t>11-09-1983</t>
-  </si>
-  <si>
-    <t>12-09-1983</t>
-  </si>
-  <si>
-    <t>13-09-1983</t>
-  </si>
-  <si>
-    <t>14-09-1983</t>
-  </si>
-  <si>
-    <t>15-09-1983</t>
-  </si>
-  <si>
-    <t>16-09-1983</t>
-  </si>
-  <si>
-    <t>17-09-1983</t>
-  </si>
-  <si>
-    <t>18-09-1983</t>
-  </si>
-  <si>
-    <t>19-09-1983</t>
-  </si>
-  <si>
-    <t>20-09-1983</t>
-  </si>
-  <si>
-    <t>21-09-1983</t>
-  </si>
-  <si>
-    <t>22-09-1983</t>
-  </si>
-  <si>
-    <t>23-09-1983</t>
-  </si>
-  <si>
-    <t>24-09-1983</t>
-  </si>
-  <si>
-    <t>25-09-1983</t>
-  </si>
-  <si>
-    <t>26-09-1983</t>
-  </si>
-  <si>
-    <t>27-09-1983</t>
-  </si>
-  <si>
-    <t>28-09-1983</t>
-  </si>
-  <si>
-    <t>29-09-1983</t>
-  </si>
-  <si>
-    <t>30-09-1983</t>
-  </si>
-  <si>
-    <t>01-10-1983</t>
-  </si>
-  <si>
-    <t>02-10-1983</t>
-  </si>
-  <si>
-    <t>03-10-1983</t>
-  </si>
-  <si>
-    <t>04-10-1983</t>
-  </si>
-  <si>
-    <t>05-10-1983</t>
-  </si>
-  <si>
-    <t>06-10-1983</t>
-  </si>
-  <si>
-    <t>07-10-1983</t>
-  </si>
-  <si>
-    <t>08-10-1983</t>
-  </si>
-  <si>
-    <t>09-10-1983</t>
-  </si>
-  <si>
-    <t>10-10-1983</t>
-  </si>
-  <si>
-    <t>11-10-1983</t>
-  </si>
-  <si>
-    <t>12-10-1983</t>
-  </si>
-  <si>
-    <t>13-10-1983</t>
-  </si>
-  <si>
-    <t>14-10-1983</t>
-  </si>
-  <si>
-    <t>15-10-1983</t>
-  </si>
-  <si>
-    <t>16-10-1983</t>
-  </si>
-  <si>
-    <t>17-10-1983</t>
-  </si>
-  <si>
-    <t>18-10-1983</t>
-  </si>
-  <si>
-    <t>19-10-1983</t>
-  </si>
-  <si>
-    <t>20-10-1983</t>
-  </si>
-  <si>
-    <t>21-10-1983</t>
-  </si>
-  <si>
-    <t>22-10-1983</t>
-  </si>
-  <si>
-    <t>23-10-1983</t>
-  </si>
-  <si>
-    <t>24-10-1983</t>
-  </si>
-  <si>
-    <t>25-10-1983</t>
-  </si>
-  <si>
-    <t>26-10-1983</t>
-  </si>
-  <si>
-    <t>27-10-1983</t>
-  </si>
-  <si>
-    <t>28-10-1983</t>
-  </si>
-  <si>
-    <t>29-10-1983</t>
-  </si>
-  <si>
-    <t>30-10-1983</t>
-  </si>
-  <si>
-    <t>31-10-1983</t>
-  </si>
-  <si>
-    <t>01-11-1983</t>
-  </si>
-  <si>
-    <t>02-11-1983</t>
-  </si>
-  <si>
-    <t>03-11-1983</t>
-  </si>
-  <si>
-    <t>04-11-1983</t>
-  </si>
-  <si>
-    <t>05-11-1983</t>
-  </si>
-  <si>
-    <t>06-11-1983</t>
-  </si>
-  <si>
-    <t>07-11-1983</t>
-  </si>
-  <si>
-    <t>08-11-1983</t>
-  </si>
-  <si>
-    <t>09-11-1983</t>
-  </si>
-  <si>
-    <t>10-11-1983</t>
-  </si>
-  <si>
-    <t>11-11-1983</t>
-  </si>
-  <si>
-    <t>12-11-1983</t>
-  </si>
-  <si>
-    <t>13-11-1983</t>
-  </si>
-  <si>
-    <t>14-11-1983</t>
-  </si>
-  <si>
-    <t>15-11-1983</t>
-  </si>
-  <si>
-    <t>16-11-1983</t>
-  </si>
-  <si>
-    <t>17-11-1983</t>
-  </si>
-  <si>
-    <t>18-11-1983</t>
-  </si>
-  <si>
-    <t>19-11-1983</t>
-  </si>
-  <si>
-    <t>20-11-1983</t>
-  </si>
-  <si>
-    <t>21-11-1983</t>
-  </si>
-  <si>
-    <t>22-11-1983</t>
-  </si>
-  <si>
-    <t>23-11-1983</t>
-  </si>
-  <si>
-    <t>24-11-1983</t>
-  </si>
-  <si>
-    <t>25-11-1983</t>
-  </si>
-  <si>
-    <t>26-11-1983</t>
-  </si>
-  <si>
-    <t>27-11-1983</t>
-  </si>
-  <si>
-    <t>28-11-1983</t>
-  </si>
-  <si>
-    <t>29-11-1983</t>
-  </si>
-  <si>
-    <t>30-11-1983</t>
-  </si>
-  <si>
-    <t>01-12-1983</t>
-  </si>
-  <si>
-    <t>02-12-1983</t>
-  </si>
-  <si>
-    <t>03-12-1983</t>
-  </si>
-  <si>
-    <t>04-12-1983</t>
-  </si>
-  <si>
-    <t>05-12-1983</t>
-  </si>
-  <si>
-    <t>06-12-1983</t>
-  </si>
-  <si>
-    <t>07-12-1983</t>
-  </si>
-  <si>
-    <t>08-12-1983</t>
-  </si>
-  <si>
-    <t>09-12-1983</t>
-  </si>
-  <si>
-    <t>10-12-1983</t>
-  </si>
-  <si>
-    <t>11-12-1983</t>
-  </si>
-  <si>
-    <t>12-12-1983</t>
-  </si>
-  <si>
-    <t>13-12-1983</t>
-  </si>
-  <si>
-    <t>14-12-1983</t>
-  </si>
-  <si>
-    <t>15-12-1983</t>
-  </si>
-  <si>
-    <t>16-12-1983</t>
-  </si>
-  <si>
-    <t>17-12-1983</t>
-  </si>
-  <si>
-    <t>18-12-1983</t>
-  </si>
-  <si>
-    <t>19-12-1983</t>
-  </si>
-  <si>
-    <t>20-12-1983</t>
-  </si>
-  <si>
-    <t>21-12-1983</t>
-  </si>
-  <si>
-    <t>22-12-1983</t>
-  </si>
-  <si>
-    <t>23-12-1983</t>
-  </si>
-  <si>
-    <t>24-12-1983</t>
-  </si>
-  <si>
-    <t>25-12-1983</t>
-  </si>
-  <si>
-    <t>26-12-1983</t>
-  </si>
-  <si>
-    <t>27-12-1983</t>
-  </si>
-  <si>
-    <t>28-12-1983</t>
-  </si>
-  <si>
-    <t>29-12-1983</t>
-  </si>
-  <si>
-    <t>30-12-1983</t>
-  </si>
-  <si>
-    <t>31-12-1983</t>
+    <t>01-01-1984</t>
+  </si>
+  <si>
+    <t>02-01-1984</t>
+  </si>
+  <si>
+    <t>03-01-1984</t>
+  </si>
+  <si>
+    <t>04-01-1984</t>
+  </si>
+  <si>
+    <t>05-01-1984</t>
+  </si>
+  <si>
+    <t>06-01-1984</t>
+  </si>
+  <si>
+    <t>07-01-1984</t>
+  </si>
+  <si>
+    <t>08-01-1984</t>
+  </si>
+  <si>
+    <t>09-01-1984</t>
+  </si>
+  <si>
+    <t>10-01-1984</t>
+  </si>
+  <si>
+    <t>11-01-1984</t>
+  </si>
+  <si>
+    <t>12-01-1984</t>
+  </si>
+  <si>
+    <t>13-01-1984</t>
+  </si>
+  <si>
+    <t>14-01-1984</t>
+  </si>
+  <si>
+    <t>15-01-1984</t>
+  </si>
+  <si>
+    <t>16-01-1984</t>
+  </si>
+  <si>
+    <t>17-01-1984</t>
+  </si>
+  <si>
+    <t>18-01-1984</t>
+  </si>
+  <si>
+    <t>19-01-1984</t>
+  </si>
+  <si>
+    <t>20-01-1984</t>
+  </si>
+  <si>
+    <t>21-01-1984</t>
+  </si>
+  <si>
+    <t>22-01-1984</t>
+  </si>
+  <si>
+    <t>23-01-1984</t>
+  </si>
+  <si>
+    <t>24-01-1984</t>
+  </si>
+  <si>
+    <t>25-01-1984</t>
+  </si>
+  <si>
+    <t>26-01-1984</t>
+  </si>
+  <si>
+    <t>27-01-1984</t>
+  </si>
+  <si>
+    <t>28-01-1984</t>
+  </si>
+  <si>
+    <t>29-01-1984</t>
+  </si>
+  <si>
+    <t>30-01-1984</t>
+  </si>
+  <si>
+    <t>31-01-1984</t>
+  </si>
+  <si>
+    <t>01-02-1984</t>
+  </si>
+  <si>
+    <t>02-02-1984</t>
+  </si>
+  <si>
+    <t>03-02-1984</t>
+  </si>
+  <si>
+    <t>04-02-1984</t>
+  </si>
+  <si>
+    <t>05-02-1984</t>
+  </si>
+  <si>
+    <t>06-02-1984</t>
+  </si>
+  <si>
+    <t>07-02-1984</t>
+  </si>
+  <si>
+    <t>08-02-1984</t>
+  </si>
+  <si>
+    <t>09-02-1984</t>
+  </si>
+  <si>
+    <t>10-02-1984</t>
+  </si>
+  <si>
+    <t>11-02-1984</t>
+  </si>
+  <si>
+    <t>12-02-1984</t>
+  </si>
+  <si>
+    <t>13-02-1984</t>
+  </si>
+  <si>
+    <t>14-02-1984</t>
+  </si>
+  <si>
+    <t>15-02-1984</t>
+  </si>
+  <si>
+    <t>16-02-1984</t>
+  </si>
+  <si>
+    <t>17-02-1984</t>
+  </si>
+  <si>
+    <t>18-02-1984</t>
+  </si>
+  <si>
+    <t>19-02-1984</t>
+  </si>
+  <si>
+    <t>20-02-1984</t>
+  </si>
+  <si>
+    <t>21-02-1984</t>
+  </si>
+  <si>
+    <t>22-02-1984</t>
+  </si>
+  <si>
+    <t>23-02-1984</t>
+  </si>
+  <si>
+    <t>24-02-1984</t>
+  </si>
+  <si>
+    <t>25-02-1984</t>
+  </si>
+  <si>
+    <t>26-02-1984</t>
+  </si>
+  <si>
+    <t>27-02-1984</t>
+  </si>
+  <si>
+    <t>28-02-1984</t>
+  </si>
+  <si>
+    <t>29-02-1984</t>
+  </si>
+  <si>
+    <t>01-03-1984</t>
+  </si>
+  <si>
+    <t>02-03-1984</t>
+  </si>
+  <si>
+    <t>03-03-1984</t>
+  </si>
+  <si>
+    <t>04-03-1984</t>
+  </si>
+  <si>
+    <t>05-03-1984</t>
+  </si>
+  <si>
+    <t>06-03-1984</t>
+  </si>
+  <si>
+    <t>07-03-1984</t>
+  </si>
+  <si>
+    <t>08-03-1984</t>
+  </si>
+  <si>
+    <t>09-03-1984</t>
+  </si>
+  <si>
+    <t>10-03-1984</t>
+  </si>
+  <si>
+    <t>11-03-1984</t>
+  </si>
+  <si>
+    <t>12-03-1984</t>
+  </si>
+  <si>
+    <t>13-03-1984</t>
+  </si>
+  <si>
+    <t>14-03-1984</t>
+  </si>
+  <si>
+    <t>15-03-1984</t>
+  </si>
+  <si>
+    <t>16-03-1984</t>
+  </si>
+  <si>
+    <t>17-03-1984</t>
+  </si>
+  <si>
+    <t>18-03-1984</t>
+  </si>
+  <si>
+    <t>19-03-1984</t>
+  </si>
+  <si>
+    <t>20-03-1984</t>
+  </si>
+  <si>
+    <t>21-03-1984</t>
+  </si>
+  <si>
+    <t>22-03-1984</t>
+  </si>
+  <si>
+    <t>23-03-1984</t>
+  </si>
+  <si>
+    <t>24-03-1984</t>
+  </si>
+  <si>
+    <t>25-03-1984</t>
+  </si>
+  <si>
+    <t>26-03-1984</t>
+  </si>
+  <si>
+    <t>27-03-1984</t>
+  </si>
+  <si>
+    <t>28-03-1984</t>
+  </si>
+  <si>
+    <t>29-03-1984</t>
+  </si>
+  <si>
+    <t>30-03-1984</t>
+  </si>
+  <si>
+    <t>31-03-1984</t>
+  </si>
+  <si>
+    <t>01-04-1984</t>
+  </si>
+  <si>
+    <t>02-04-1984</t>
+  </si>
+  <si>
+    <t>03-04-1984</t>
+  </si>
+  <si>
+    <t>04-04-1984</t>
+  </si>
+  <si>
+    <t>05-04-1984</t>
+  </si>
+  <si>
+    <t>06-04-1984</t>
+  </si>
+  <si>
+    <t>07-04-1984</t>
+  </si>
+  <si>
+    <t>08-04-1984</t>
+  </si>
+  <si>
+    <t>09-04-1984</t>
+  </si>
+  <si>
+    <t>10-04-1984</t>
+  </si>
+  <si>
+    <t>11-04-1984</t>
+  </si>
+  <si>
+    <t>12-04-1984</t>
+  </si>
+  <si>
+    <t>13-04-1984</t>
+  </si>
+  <si>
+    <t>14-04-1984</t>
+  </si>
+  <si>
+    <t>15-04-1984</t>
+  </si>
+  <si>
+    <t>16-04-1984</t>
+  </si>
+  <si>
+    <t>17-04-1984</t>
+  </si>
+  <si>
+    <t>18-04-1984</t>
+  </si>
+  <si>
+    <t>19-04-1984</t>
+  </si>
+  <si>
+    <t>20-04-1984</t>
+  </si>
+  <si>
+    <t>21-04-1984</t>
+  </si>
+  <si>
+    <t>22-04-1984</t>
+  </si>
+  <si>
+    <t>23-04-1984</t>
+  </si>
+  <si>
+    <t>24-04-1984</t>
+  </si>
+  <si>
+    <t>25-04-1984</t>
+  </si>
+  <si>
+    <t>26-04-1984</t>
+  </si>
+  <si>
+    <t>27-04-1984</t>
+  </si>
+  <si>
+    <t>28-04-1984</t>
+  </si>
+  <si>
+    <t>29-04-1984</t>
+  </si>
+  <si>
+    <t>30-04-1984</t>
+  </si>
+  <si>
+    <t>01-05-1984</t>
+  </si>
+  <si>
+    <t>02-05-1984</t>
+  </si>
+  <si>
+    <t>03-05-1984</t>
+  </si>
+  <si>
+    <t>04-05-1984</t>
+  </si>
+  <si>
+    <t>05-05-1984</t>
+  </si>
+  <si>
+    <t>06-05-1984</t>
+  </si>
+  <si>
+    <t>07-05-1984</t>
+  </si>
+  <si>
+    <t>08-05-1984</t>
+  </si>
+  <si>
+    <t>09-05-1984</t>
+  </si>
+  <si>
+    <t>10-05-1984</t>
+  </si>
+  <si>
+    <t>11-05-1984</t>
+  </si>
+  <si>
+    <t>12-05-1984</t>
+  </si>
+  <si>
+    <t>13-05-1984</t>
+  </si>
+  <si>
+    <t>14-05-1984</t>
+  </si>
+  <si>
+    <t>15-05-1984</t>
+  </si>
+  <si>
+    <t>16-05-1984</t>
+  </si>
+  <si>
+    <t>17-05-1984</t>
+  </si>
+  <si>
+    <t>18-05-1984</t>
+  </si>
+  <si>
+    <t>19-05-1984</t>
+  </si>
+  <si>
+    <t>20-05-1984</t>
+  </si>
+  <si>
+    <t>21-05-1984</t>
+  </si>
+  <si>
+    <t>22-05-1984</t>
+  </si>
+  <si>
+    <t>23-05-1984</t>
+  </si>
+  <si>
+    <t>24-05-1984</t>
+  </si>
+  <si>
+    <t>25-05-1984</t>
+  </si>
+  <si>
+    <t>26-05-1984</t>
+  </si>
+  <si>
+    <t>27-05-1984</t>
+  </si>
+  <si>
+    <t>28-05-1984</t>
+  </si>
+  <si>
+    <t>29-05-1984</t>
+  </si>
+  <si>
+    <t>30-05-1984</t>
+  </si>
+  <si>
+    <t>31-05-1984</t>
+  </si>
+  <si>
+    <t>01-06-1984</t>
+  </si>
+  <si>
+    <t>02-06-1984</t>
+  </si>
+  <si>
+    <t>03-06-1984</t>
+  </si>
+  <si>
+    <t>04-06-1984</t>
+  </si>
+  <si>
+    <t>05-06-1984</t>
+  </si>
+  <si>
+    <t>06-06-1984</t>
+  </si>
+  <si>
+    <t>07-06-1984</t>
+  </si>
+  <si>
+    <t>08-06-1984</t>
+  </si>
+  <si>
+    <t>09-06-1984</t>
+  </si>
+  <si>
+    <t>10-06-1984</t>
+  </si>
+  <si>
+    <t>11-06-1984</t>
+  </si>
+  <si>
+    <t>12-06-1984</t>
+  </si>
+  <si>
+    <t>13-06-1984</t>
+  </si>
+  <si>
+    <t>14-06-1984</t>
+  </si>
+  <si>
+    <t>15-06-1984</t>
+  </si>
+  <si>
+    <t>16-06-1984</t>
+  </si>
+  <si>
+    <t>17-06-1984</t>
+  </si>
+  <si>
+    <t>18-06-1984</t>
+  </si>
+  <si>
+    <t>19-06-1984</t>
+  </si>
+  <si>
+    <t>20-06-1984</t>
+  </si>
+  <si>
+    <t>21-06-1984</t>
+  </si>
+  <si>
+    <t>22-06-1984</t>
+  </si>
+  <si>
+    <t>23-06-1984</t>
+  </si>
+  <si>
+    <t>24-06-1984</t>
+  </si>
+  <si>
+    <t>25-06-1984</t>
+  </si>
+  <si>
+    <t>26-06-1984</t>
+  </si>
+  <si>
+    <t>27-06-1984</t>
+  </si>
+  <si>
+    <t>28-06-1984</t>
+  </si>
+  <si>
+    <t>29-06-1984</t>
+  </si>
+  <si>
+    <t>30-06-1984</t>
+  </si>
+  <si>
+    <t>01-07-1984</t>
+  </si>
+  <si>
+    <t>02-07-1984</t>
+  </si>
+  <si>
+    <t>03-07-1984</t>
+  </si>
+  <si>
+    <t>04-07-1984</t>
+  </si>
+  <si>
+    <t>05-07-1984</t>
+  </si>
+  <si>
+    <t>06-07-1984</t>
+  </si>
+  <si>
+    <t>07-07-1984</t>
+  </si>
+  <si>
+    <t>08-07-1984</t>
+  </si>
+  <si>
+    <t>09-07-1984</t>
+  </si>
+  <si>
+    <t>10-07-1984</t>
+  </si>
+  <si>
+    <t>11-07-1984</t>
+  </si>
+  <si>
+    <t>12-07-1984</t>
+  </si>
+  <si>
+    <t>13-07-1984</t>
+  </si>
+  <si>
+    <t>14-07-1984</t>
+  </si>
+  <si>
+    <t>15-07-1984</t>
+  </si>
+  <si>
+    <t>16-07-1984</t>
+  </si>
+  <si>
+    <t>17-07-1984</t>
+  </si>
+  <si>
+    <t>18-07-1984</t>
+  </si>
+  <si>
+    <t>19-07-1984</t>
+  </si>
+  <si>
+    <t>20-07-1984</t>
+  </si>
+  <si>
+    <t>21-07-1984</t>
+  </si>
+  <si>
+    <t>22-07-1984</t>
+  </si>
+  <si>
+    <t>23-07-1984</t>
+  </si>
+  <si>
+    <t>24-07-1984</t>
+  </si>
+  <si>
+    <t>25-07-1984</t>
+  </si>
+  <si>
+    <t>26-07-1984</t>
+  </si>
+  <si>
+    <t>27-07-1984</t>
+  </si>
+  <si>
+    <t>28-07-1984</t>
+  </si>
+  <si>
+    <t>29-07-1984</t>
+  </si>
+  <si>
+    <t>30-07-1984</t>
+  </si>
+  <si>
+    <t>31-07-1984</t>
+  </si>
+  <si>
+    <t>01-08-1984</t>
+  </si>
+  <si>
+    <t>02-08-1984</t>
+  </si>
+  <si>
+    <t>03-08-1984</t>
+  </si>
+  <si>
+    <t>04-08-1984</t>
+  </si>
+  <si>
+    <t>05-08-1984</t>
+  </si>
+  <si>
+    <t>06-08-1984</t>
+  </si>
+  <si>
+    <t>07-08-1984</t>
+  </si>
+  <si>
+    <t>08-08-1984</t>
+  </si>
+  <si>
+    <t>09-08-1984</t>
+  </si>
+  <si>
+    <t>10-08-1984</t>
+  </si>
+  <si>
+    <t>11-08-1984</t>
+  </si>
+  <si>
+    <t>12-08-1984</t>
+  </si>
+  <si>
+    <t>13-08-1984</t>
+  </si>
+  <si>
+    <t>14-08-1984</t>
+  </si>
+  <si>
+    <t>15-08-1984</t>
+  </si>
+  <si>
+    <t>16-08-1984</t>
+  </si>
+  <si>
+    <t>17-08-1984</t>
+  </si>
+  <si>
+    <t>18-08-1984</t>
+  </si>
+  <si>
+    <t>19-08-1984</t>
+  </si>
+  <si>
+    <t>20-08-1984</t>
+  </si>
+  <si>
+    <t>21-08-1984</t>
+  </si>
+  <si>
+    <t>22-08-1984</t>
+  </si>
+  <si>
+    <t>23-08-1984</t>
+  </si>
+  <si>
+    <t>24-08-1984</t>
+  </si>
+  <si>
+    <t>25-08-1984</t>
+  </si>
+  <si>
+    <t>26-08-1984</t>
+  </si>
+  <si>
+    <t>27-08-1984</t>
+  </si>
+  <si>
+    <t>28-08-1984</t>
+  </si>
+  <si>
+    <t>29-08-1984</t>
+  </si>
+  <si>
+    <t>30-08-1984</t>
+  </si>
+  <si>
+    <t>31-08-1984</t>
+  </si>
+  <si>
+    <t>01-09-1984</t>
+  </si>
+  <si>
+    <t>02-09-1984</t>
+  </si>
+  <si>
+    <t>03-09-1984</t>
+  </si>
+  <si>
+    <t>04-09-1984</t>
+  </si>
+  <si>
+    <t>05-09-1984</t>
+  </si>
+  <si>
+    <t>06-09-1984</t>
+  </si>
+  <si>
+    <t>07-09-1984</t>
+  </si>
+  <si>
+    <t>08-09-1984</t>
+  </si>
+  <si>
+    <t>09-09-1984</t>
+  </si>
+  <si>
+    <t>10-09-1984</t>
+  </si>
+  <si>
+    <t>11-09-1984</t>
+  </si>
+  <si>
+    <t>12-09-1984</t>
+  </si>
+  <si>
+    <t>13-09-1984</t>
+  </si>
+  <si>
+    <t>14-09-1984</t>
+  </si>
+  <si>
+    <t>15-09-1984</t>
+  </si>
+  <si>
+    <t>16-09-1984</t>
+  </si>
+  <si>
+    <t>17-09-1984</t>
+  </si>
+  <si>
+    <t>18-09-1984</t>
+  </si>
+  <si>
+    <t>19-09-1984</t>
+  </si>
+  <si>
+    <t>20-09-1984</t>
+  </si>
+  <si>
+    <t>21-09-1984</t>
+  </si>
+  <si>
+    <t>22-09-1984</t>
+  </si>
+  <si>
+    <t>23-09-1984</t>
+  </si>
+  <si>
+    <t>24-09-1984</t>
+  </si>
+  <si>
+    <t>25-09-1984</t>
+  </si>
+  <si>
+    <t>26-09-1984</t>
+  </si>
+  <si>
+    <t>27-09-1984</t>
+  </si>
+  <si>
+    <t>28-09-1984</t>
+  </si>
+  <si>
+    <t>29-09-1984</t>
+  </si>
+  <si>
+    <t>30-09-1984</t>
+  </si>
+  <si>
+    <t>01-10-1984</t>
+  </si>
+  <si>
+    <t>02-10-1984</t>
+  </si>
+  <si>
+    <t>03-10-1984</t>
+  </si>
+  <si>
+    <t>04-10-1984</t>
+  </si>
+  <si>
+    <t>05-10-1984</t>
+  </si>
+  <si>
+    <t>06-10-1984</t>
+  </si>
+  <si>
+    <t>07-10-1984</t>
+  </si>
+  <si>
+    <t>08-10-1984</t>
+  </si>
+  <si>
+    <t>09-10-1984</t>
+  </si>
+  <si>
+    <t>10-10-1984</t>
+  </si>
+  <si>
+    <t>11-10-1984</t>
+  </si>
+  <si>
+    <t>12-10-1984</t>
+  </si>
+  <si>
+    <t>13-10-1984</t>
+  </si>
+  <si>
+    <t>14-10-1984</t>
+  </si>
+  <si>
+    <t>15-10-1984</t>
+  </si>
+  <si>
+    <t>16-10-1984</t>
+  </si>
+  <si>
+    <t>17-10-1984</t>
+  </si>
+  <si>
+    <t>18-10-1984</t>
+  </si>
+  <si>
+    <t>19-10-1984</t>
+  </si>
+  <si>
+    <t>20-10-1984</t>
+  </si>
+  <si>
+    <t>21-10-1984</t>
+  </si>
+  <si>
+    <t>22-10-1984</t>
+  </si>
+  <si>
+    <t>23-10-1984</t>
+  </si>
+  <si>
+    <t>24-10-1984</t>
+  </si>
+  <si>
+    <t>25-10-1984</t>
+  </si>
+  <si>
+    <t>26-10-1984</t>
+  </si>
+  <si>
+    <t>27-10-1984</t>
+  </si>
+  <si>
+    <t>28-10-1984</t>
+  </si>
+  <si>
+    <t>29-10-1984</t>
+  </si>
+  <si>
+    <t>30-10-1984</t>
+  </si>
+  <si>
+    <t>31-10-1984</t>
+  </si>
+  <si>
+    <t>01-11-1984</t>
+  </si>
+  <si>
+    <t>02-11-1984</t>
+  </si>
+  <si>
+    <t>03-11-1984</t>
+  </si>
+  <si>
+    <t>04-11-1984</t>
+  </si>
+  <si>
+    <t>05-11-1984</t>
+  </si>
+  <si>
+    <t>06-11-1984</t>
+  </si>
+  <si>
+    <t>07-11-1984</t>
+  </si>
+  <si>
+    <t>08-11-1984</t>
+  </si>
+  <si>
+    <t>09-11-1984</t>
+  </si>
+  <si>
+    <t>10-11-1984</t>
+  </si>
+  <si>
+    <t>11-11-1984</t>
+  </si>
+  <si>
+    <t>12-11-1984</t>
+  </si>
+  <si>
+    <t>13-11-1984</t>
+  </si>
+  <si>
+    <t>14-11-1984</t>
+  </si>
+  <si>
+    <t>15-11-1984</t>
+  </si>
+  <si>
+    <t>16-11-1984</t>
+  </si>
+  <si>
+    <t>17-11-1984</t>
+  </si>
+  <si>
+    <t>18-11-1984</t>
+  </si>
+  <si>
+    <t>19-11-1984</t>
+  </si>
+  <si>
+    <t>20-11-1984</t>
+  </si>
+  <si>
+    <t>21-11-1984</t>
+  </si>
+  <si>
+    <t>22-11-1984</t>
+  </si>
+  <si>
+    <t>23-11-1984</t>
+  </si>
+  <si>
+    <t>24-11-1984</t>
+  </si>
+  <si>
+    <t>25-11-1984</t>
+  </si>
+  <si>
+    <t>26-11-1984</t>
+  </si>
+  <si>
+    <t>27-11-1984</t>
+  </si>
+  <si>
+    <t>28-11-1984</t>
+  </si>
+  <si>
+    <t>29-11-1984</t>
+  </si>
+  <si>
+    <t>30-11-1984</t>
+  </si>
+  <si>
+    <t>01-12-1984</t>
+  </si>
+  <si>
+    <t>02-12-1984</t>
+  </si>
+  <si>
+    <t>03-12-1984</t>
+  </si>
+  <si>
+    <t>04-12-1984</t>
+  </si>
+  <si>
+    <t>05-12-1984</t>
+  </si>
+  <si>
+    <t>06-12-1984</t>
+  </si>
+  <si>
+    <t>07-12-1984</t>
+  </si>
+  <si>
+    <t>08-12-1984</t>
+  </si>
+  <si>
+    <t>09-12-1984</t>
+  </si>
+  <si>
+    <t>10-12-1984</t>
+  </si>
+  <si>
+    <t>11-12-1984</t>
+  </si>
+  <si>
+    <t>12-12-1984</t>
+  </si>
+  <si>
+    <t>13-12-1984</t>
+  </si>
+  <si>
+    <t>14-12-1984</t>
+  </si>
+  <si>
+    <t>15-12-1984</t>
+  </si>
+  <si>
+    <t>16-12-1984</t>
+  </si>
+  <si>
+    <t>17-12-1984</t>
+  </si>
+  <si>
+    <t>18-12-1984</t>
+  </si>
+  <si>
+    <t>19-12-1984</t>
+  </si>
+  <si>
+    <t>20-12-1984</t>
+  </si>
+  <si>
+    <t>21-12-1984</t>
+  </si>
+  <si>
+    <t>22-12-1984</t>
+  </si>
+  <si>
+    <t>23-12-1984</t>
+  </si>
+  <si>
+    <t>24-12-1984</t>
+  </si>
+  <si>
+    <t>25-12-1984</t>
+  </si>
+  <si>
+    <t>26-12-1984</t>
+  </si>
+  <si>
+    <t>27-12-1984</t>
+  </si>
+  <si>
+    <t>28-12-1984</t>
+  </si>
+  <si>
+    <t>29-12-1984</t>
+  </si>
+  <si>
+    <t>30-12-1984</t>
+  </si>
+  <si>
+    <t>31-12-1984</t>
   </si>
 </sst>
 </file>
@@ -1475,7 +1478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C366"/>
+  <dimension ref="A1:C367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1497,7 +1500,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1466.21</v>
+        <v>1824.79</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1505,7 +1508,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>1467.74</v>
+        <v>1825.55</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1513,7 +1516,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>1469.28</v>
+        <v>1826.31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1521,7 +1524,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>1470.82</v>
+        <v>1827.08</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1529,7 +1532,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>1472.36</v>
+        <v>1827.84</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1537,7 +1540,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>1473.9</v>
+        <v>1828.6</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1545,7 +1548,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>1475.45</v>
+        <v>1829.36</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1553,7 +1556,7 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>1477</v>
+        <v>1830.12</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1561,7 +1564,7 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>1478.54</v>
+        <v>1830.89</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1569,7 +1572,7 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>1479.11</v>
+        <v>1831.24</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1577,7 +1580,7 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>1479.68</v>
+        <v>1831.6</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1585,7 +1588,7 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>1480.25</v>
+        <v>1831.95</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1593,7 +1596,7 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>1480.82</v>
+        <v>1832.3</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1601,7 +1604,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>1481.39</v>
+        <v>1832.66</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1609,7 +1612,7 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>1481.96</v>
+        <v>1833.01</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1617,7 +1620,7 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>1482.53</v>
+        <v>1833.36</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1625,7 +1628,7 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>1483.1</v>
+        <v>1833.72</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1633,7 +1636,7 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>1483.67</v>
+        <v>1834.07</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1641,7 +1644,7 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>1484.24</v>
+        <v>1834.43</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1649,7 +1652,7 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>1484.81</v>
+        <v>1834.78</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1657,7 +1660,7 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>1485.38</v>
+        <v>1835.13</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1665,7 +1668,7 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>1485.95</v>
+        <v>1835.49</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1673,7 +1676,7 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>1486.53</v>
+        <v>1835.84</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1681,7 +1684,7 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>1487.1</v>
+        <v>1836.2</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1689,7 +1692,7 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>1487.67</v>
+        <v>1836.55</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1697,7 +1700,7 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>1488.24</v>
+        <v>1836.91</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1705,7 +1708,7 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>1488.82</v>
+        <v>1837.26</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1713,7 +1716,7 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>1489.39</v>
+        <v>1837.62</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1721,7 +1724,7 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>1489.96</v>
+        <v>1837.97</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1729,7 +1732,7 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>1490.54</v>
+        <v>1838.32</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1737,7 +1740,7 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>1491.11</v>
+        <v>1838.68</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1745,7 +1748,7 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>1491.68</v>
+        <v>1839.03</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1753,7 +1756,7 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>1492.26</v>
+        <v>1839.39</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1761,7 +1764,7 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>1492.83</v>
+        <v>1839.74</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1769,7 +1772,7 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>1493.41</v>
+        <v>1840.1</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1777,7 +1780,7 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>1493.98</v>
+        <v>1840.45</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1785,7 +1788,7 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>1494.56</v>
+        <v>1840.81</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1793,7 +1796,7 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>1495.13</v>
+        <v>1841.16</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1801,7 +1804,7 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>1495.71</v>
+        <v>1841.52</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1809,7 +1812,7 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>1496.28</v>
+        <v>1841.88</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1817,7 +1820,7 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>1497.23</v>
+        <v>1841.94</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1825,7 +1828,7 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>1498.19</v>
+        <v>1842.01</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1833,7 +1836,7 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>1499.14</v>
+        <v>1842.07</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1841,7 +1844,7 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>1500.1</v>
+        <v>1842.13</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1849,7 +1852,7 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>1501.05</v>
+        <v>1842.2</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1857,7 +1860,7 @@
         <v>48</v>
       </c>
       <c r="B47">
-        <v>1502.01</v>
+        <v>1842.26</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1865,7 +1868,7 @@
         <v>49</v>
       </c>
       <c r="B48">
-        <v>1502.97</v>
+        <v>1842.32</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1873,7 +1876,7 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>1503.93</v>
+        <v>1842.39</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1881,7 +1884,7 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>1504.88</v>
+        <v>1842.45</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1889,7 +1892,7 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>1505.84</v>
+        <v>1842.51</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1897,7 +1900,7 @@
         <v>53</v>
       </c>
       <c r="B52">
-        <v>1506.8</v>
+        <v>1842.58</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1905,7 +1908,7 @@
         <v>54</v>
       </c>
       <c r="B53">
-        <v>1507.76</v>
+        <v>1842.64</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1913,7 +1916,7 @@
         <v>55</v>
       </c>
       <c r="B54">
-        <v>1508.72</v>
+        <v>1842.71</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1921,7 +1924,7 @@
         <v>56</v>
       </c>
       <c r="B55">
-        <v>1509.69</v>
+        <v>1842.77</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1929,7 +1932,7 @@
         <v>57</v>
       </c>
       <c r="B56">
-        <v>1510.65</v>
+        <v>1842.83</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1937,7 +1940,7 @@
         <v>58</v>
       </c>
       <c r="B57">
-        <v>1511.61</v>
+        <v>1842.9</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1945,7 +1948,7 @@
         <v>59</v>
       </c>
       <c r="B58">
-        <v>1512.57</v>
+        <v>1842.96</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1953,7 +1956,7 @@
         <v>60</v>
       </c>
       <c r="B59">
-        <v>1513.54</v>
+        <v>1843.02</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1961,7 +1964,7 @@
         <v>61</v>
       </c>
       <c r="B60">
-        <v>1514.5</v>
+        <v>1843.09</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1969,7 +1972,7 @@
         <v>62</v>
       </c>
       <c r="B61">
-        <v>1515.47</v>
+        <v>1843.15</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1977,7 +1980,7 @@
         <v>63</v>
       </c>
       <c r="B62">
-        <v>1516.43</v>
+        <v>1843.21</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1985,7 +1988,7 @@
         <v>64</v>
       </c>
       <c r="B63">
-        <v>1517.4</v>
+        <v>1843.28</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1993,7 +1996,7 @@
         <v>65</v>
       </c>
       <c r="B64">
-        <v>1518.37</v>
+        <v>1843.34</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2001,7 +2004,7 @@
         <v>66</v>
       </c>
       <c r="B65">
-        <v>1519.34</v>
+        <v>1843.4</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2009,7 +2012,7 @@
         <v>67</v>
       </c>
       <c r="B66">
-        <v>1520.3</v>
+        <v>1843.47</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2017,7 +2020,7 @@
         <v>68</v>
       </c>
       <c r="B67">
-        <v>1521.27</v>
+        <v>1843.53</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2025,7 +2028,7 @@
         <v>69</v>
       </c>
       <c r="B68">
-        <v>1522.24</v>
+        <v>1843.59</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2033,7 +2036,7 @@
         <v>70</v>
       </c>
       <c r="B69">
-        <v>1523.21</v>
+        <v>1843.66</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2041,7 +2044,7 @@
         <v>71</v>
       </c>
       <c r="B70">
-        <v>1523.26</v>
+        <v>1843.72</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2049,7 +2052,7 @@
         <v>72</v>
       </c>
       <c r="B71">
-        <v>1523.31</v>
+        <v>1843.6</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2057,7 +2060,7 @@
         <v>73</v>
       </c>
       <c r="B72">
-        <v>1523.36</v>
+        <v>1843.48</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2065,7 +2068,7 @@
         <v>74</v>
       </c>
       <c r="B73">
-        <v>1523.41</v>
+        <v>1843.36</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2073,7 +2076,7 @@
         <v>75</v>
       </c>
       <c r="B74">
-        <v>1523.46</v>
+        <v>1843.24</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2081,7 +2084,7 @@
         <v>76</v>
       </c>
       <c r="B75">
-        <v>1523.5</v>
+        <v>1843.12</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2089,7 +2092,7 @@
         <v>77</v>
       </c>
       <c r="B76">
-        <v>1523.55</v>
+        <v>1843.01</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2097,7 +2100,7 @@
         <v>78</v>
       </c>
       <c r="B77">
-        <v>1523.6</v>
+        <v>1842.89</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2105,7 +2108,7 @@
         <v>79</v>
       </c>
       <c r="B78">
-        <v>1523.65</v>
+        <v>1842.77</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2113,7 +2116,7 @@
         <v>80</v>
       </c>
       <c r="B79">
-        <v>1523.7</v>
+        <v>1842.65</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2121,7 +2124,7 @@
         <v>81</v>
       </c>
       <c r="B80">
-        <v>1523.75</v>
+        <v>1842.53</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2129,7 +2132,7 @@
         <v>82</v>
       </c>
       <c r="B81">
-        <v>1523.8</v>
+        <v>1842.41</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2137,7 +2140,7 @@
         <v>83</v>
       </c>
       <c r="B82">
-        <v>1523.85</v>
+        <v>1842.29</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2145,7 +2148,7 @@
         <v>84</v>
       </c>
       <c r="B83">
-        <v>1523.9</v>
+        <v>1842.17</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2153,7 +2156,7 @@
         <v>85</v>
       </c>
       <c r="B84">
-        <v>1523.95</v>
+        <v>1842.05</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2161,7 +2164,7 @@
         <v>86</v>
       </c>
       <c r="B85">
-        <v>1524</v>
+        <v>1841.93</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2169,7 +2172,7 @@
         <v>87</v>
       </c>
       <c r="B86">
-        <v>1524.05</v>
+        <v>1841.82</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2177,7 +2180,7 @@
         <v>88</v>
       </c>
       <c r="B87">
-        <v>1524.09</v>
+        <v>1841.7</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2185,7 +2188,7 @@
         <v>89</v>
       </c>
       <c r="B88">
-        <v>1524.14</v>
+        <v>1841.58</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2193,7 +2196,7 @@
         <v>90</v>
       </c>
       <c r="B89">
-        <v>1524.19</v>
+        <v>1841.46</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2201,7 +2204,7 @@
         <v>91</v>
       </c>
       <c r="B90">
-        <v>1524.24</v>
+        <v>1841.34</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2209,7 +2212,7 @@
         <v>92</v>
       </c>
       <c r="B91">
-        <v>1524.29</v>
+        <v>1841.22</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2217,7 +2220,7 @@
         <v>93</v>
       </c>
       <c r="B92">
-        <v>1524.34</v>
+        <v>1841.1</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2225,7 +2228,7 @@
         <v>94</v>
       </c>
       <c r="B93">
-        <v>1524.39</v>
+        <v>1840.98</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2233,7 +2236,7 @@
         <v>95</v>
       </c>
       <c r="B94">
-        <v>1524.44</v>
+        <v>1840.86</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2241,7 +2244,7 @@
         <v>96</v>
       </c>
       <c r="B95">
-        <v>1524.49</v>
+        <v>1840.75</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2249,7 +2252,7 @@
         <v>97</v>
       </c>
       <c r="B96">
-        <v>1524.54</v>
+        <v>1840.63</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2257,7 +2260,7 @@
         <v>98</v>
       </c>
       <c r="B97">
-        <v>1524.59</v>
+        <v>1840.51</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2265,7 +2268,7 @@
         <v>99</v>
       </c>
       <c r="B98">
-        <v>1524.63</v>
+        <v>1840.39</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2273,7 +2276,7 @@
         <v>100</v>
       </c>
       <c r="B99">
-        <v>1524.68</v>
+        <v>1840.27</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2281,7 +2284,7 @@
         <v>101</v>
       </c>
       <c r="B100">
-        <v>1524.73</v>
+        <v>1840.15</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2289,7 +2292,7 @@
         <v>102</v>
       </c>
       <c r="B101">
-        <v>1525.69</v>
+        <v>1840.03</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2297,7 +2300,7 @@
         <v>103</v>
       </c>
       <c r="B102">
-        <v>1526.64</v>
+        <v>1841.55</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2305,7 +2308,7 @@
         <v>104</v>
       </c>
       <c r="B103">
-        <v>1527.6</v>
+        <v>1843.06</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2313,7 +2316,7 @@
         <v>105</v>
       </c>
       <c r="B104">
-        <v>1528.56</v>
+        <v>1844.58</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2321,7 +2324,7 @@
         <v>106</v>
       </c>
       <c r="B105">
-        <v>1529.52</v>
+        <v>1846.1</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2329,7 +2332,7 @@
         <v>107</v>
       </c>
       <c r="B106">
-        <v>1530.48</v>
+        <v>1847.62</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2337,7 +2340,7 @@
         <v>108</v>
       </c>
       <c r="B107">
-        <v>1531.44</v>
+        <v>1849.14</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2345,7 +2348,7 @@
         <v>109</v>
       </c>
       <c r="B108">
-        <v>1532.4</v>
+        <v>1850.66</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2353,7 +2356,7 @@
         <v>110</v>
       </c>
       <c r="B109">
-        <v>1533.36</v>
+        <v>1852.19</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2361,7 +2364,7 @@
         <v>111</v>
       </c>
       <c r="B110">
-        <v>1534.33</v>
+        <v>1853.71</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2369,7 +2372,7 @@
         <v>112</v>
       </c>
       <c r="B111">
-        <v>1535.29</v>
+        <v>1855.24</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2377,7 +2380,7 @@
         <v>113</v>
       </c>
       <c r="B112">
-        <v>1536.25</v>
+        <v>1856.77</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2385,7 +2388,7 @@
         <v>114</v>
       </c>
       <c r="B113">
-        <v>1537.22</v>
+        <v>1858.29</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2393,7 +2396,7 @@
         <v>115</v>
       </c>
       <c r="B114">
-        <v>1538.18</v>
+        <v>1859.82</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2401,7 +2404,7 @@
         <v>116</v>
       </c>
       <c r="B115">
-        <v>1539.15</v>
+        <v>1861.36</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2409,7 +2412,7 @@
         <v>117</v>
       </c>
       <c r="B116">
-        <v>1540.11</v>
+        <v>1862.89</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2417,7 +2420,7 @@
         <v>118</v>
       </c>
       <c r="B117">
-        <v>1541.08</v>
+        <v>1864.42</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2425,7 +2428,7 @@
         <v>119</v>
       </c>
       <c r="B118">
-        <v>1542.05</v>
+        <v>1865.96</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2433,7 +2436,7 @@
         <v>120</v>
       </c>
       <c r="B119">
-        <v>1543.01</v>
+        <v>1867.49</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2441,7 +2444,7 @@
         <v>121</v>
       </c>
       <c r="B120">
-        <v>1543.98</v>
+        <v>1869.03</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2449,7 +2452,7 @@
         <v>122</v>
       </c>
       <c r="B121">
-        <v>1544.95</v>
+        <v>1870.57</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2457,7 +2460,7 @@
         <v>123</v>
       </c>
       <c r="B122">
-        <v>1545.92</v>
+        <v>1872.11</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2465,7 +2468,7 @@
         <v>124</v>
       </c>
       <c r="B123">
-        <v>1546.89</v>
+        <v>1873.65</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2473,7 +2476,7 @@
         <v>125</v>
       </c>
       <c r="B124">
-        <v>1547.86</v>
+        <v>1875.2</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2481,7 +2484,7 @@
         <v>126</v>
       </c>
       <c r="B125">
-        <v>1548.83</v>
+        <v>1876.74</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2489,7 +2492,7 @@
         <v>127</v>
       </c>
       <c r="B126">
-        <v>1549.81</v>
+        <v>1878.28</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2497,7 +2500,7 @@
         <v>128</v>
       </c>
       <c r="B127">
-        <v>1550.78</v>
+        <v>1879.83</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2505,7 +2508,7 @@
         <v>129</v>
       </c>
       <c r="B128">
-        <v>1551.75</v>
+        <v>1881.38</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2513,7 +2516,7 @@
         <v>130</v>
       </c>
       <c r="B129">
-        <v>1552.73</v>
+        <v>1882.93</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2521,7 +2524,7 @@
         <v>131</v>
       </c>
       <c r="B130">
-        <v>1553.7</v>
+        <v>1884.48</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2529,7 +2532,7 @@
         <v>132</v>
       </c>
       <c r="B131">
-        <v>1555.18</v>
+        <v>1886.03</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2537,7 +2540,7 @@
         <v>133</v>
       </c>
       <c r="B132">
-        <v>1556.67</v>
+        <v>1886.94</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2545,7 +2548,7 @@
         <v>134</v>
       </c>
       <c r="B133">
-        <v>1558.15</v>
+        <v>1887.84</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2553,7 +2556,7 @@
         <v>135</v>
       </c>
       <c r="B134">
-        <v>1559.64</v>
+        <v>1888.75</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2561,7 +2564,7 @@
         <v>136</v>
       </c>
       <c r="B135">
-        <v>1561.13</v>
+        <v>1889.66</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2569,7 +2572,7 @@
         <v>137</v>
       </c>
       <c r="B136">
-        <v>1562.61</v>
+        <v>1890.56</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2577,7 +2580,7 @@
         <v>138</v>
       </c>
       <c r="B137">
-        <v>1564.1</v>
+        <v>1891.47</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2585,7 +2588,7 @@
         <v>139</v>
       </c>
       <c r="B138">
-        <v>1565.6</v>
+        <v>1892.38</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2593,7 +2596,7 @@
         <v>140</v>
       </c>
       <c r="B139">
-        <v>1567.09</v>
+        <v>1893.29</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2601,7 +2604,7 @@
         <v>141</v>
       </c>
       <c r="B140">
-        <v>1568.59</v>
+        <v>1894.2</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2609,7 +2612,7 @@
         <v>142</v>
       </c>
       <c r="B141">
-        <v>1570.08</v>
+        <v>1895.11</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2617,7 +2620,7 @@
         <v>143</v>
       </c>
       <c r="B142">
-        <v>1571.58</v>
+        <v>1896.02</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2625,7 +2628,7 @@
         <v>144</v>
       </c>
       <c r="B143">
-        <v>1573.08</v>
+        <v>1896.93</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2633,7 +2636,7 @@
         <v>145</v>
       </c>
       <c r="B144">
-        <v>1574.58</v>
+        <v>1897.84</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2641,7 +2644,7 @@
         <v>146</v>
       </c>
       <c r="B145">
-        <v>1576.08</v>
+        <v>1898.75</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2649,7 +2652,7 @@
         <v>147</v>
       </c>
       <c r="B146">
-        <v>1577.59</v>
+        <v>1899.67</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2657,7 +2660,7 @@
         <v>148</v>
       </c>
       <c r="B147">
-        <v>1579.09</v>
+        <v>1900.58</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2665,7 +2668,7 @@
         <v>149</v>
       </c>
       <c r="B148">
-        <v>1580.6</v>
+        <v>1901.49</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2673,7 +2676,7 @@
         <v>150</v>
       </c>
       <c r="B149">
-        <v>1582.1</v>
+        <v>1902.41</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2681,7 +2684,7 @@
         <v>151</v>
       </c>
       <c r="B150">
-        <v>1583.61</v>
+        <v>1903.32</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2689,7 +2692,7 @@
         <v>152</v>
       </c>
       <c r="B151">
-        <v>1585.12</v>
+        <v>1904.23</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2697,7 +2700,7 @@
         <v>153</v>
       </c>
       <c r="B152">
-        <v>1586.64</v>
+        <v>1905.15</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2705,7 +2708,7 @@
         <v>154</v>
       </c>
       <c r="B153">
-        <v>1588.15</v>
+        <v>1906.06</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2713,7 +2716,7 @@
         <v>155</v>
       </c>
       <c r="B154">
-        <v>1589.67</v>
+        <v>1906.98</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2721,7 +2724,7 @@
         <v>156</v>
       </c>
       <c r="B155">
-        <v>1591.18</v>
+        <v>1907.9</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2729,7 +2732,7 @@
         <v>157</v>
       </c>
       <c r="B156">
-        <v>1592.7</v>
+        <v>1908.81</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2737,7 +2740,7 @@
         <v>158</v>
       </c>
       <c r="B157">
-        <v>1594.22</v>
+        <v>1909.73</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2745,7 +2748,7 @@
         <v>159</v>
       </c>
       <c r="B158">
-        <v>1595.74</v>
+        <v>1910.65</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2753,7 +2756,7 @@
         <v>160</v>
       </c>
       <c r="B159">
-        <v>1597.26</v>
+        <v>1911.56</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2761,7 +2764,7 @@
         <v>161</v>
       </c>
       <c r="B160">
-        <v>1598.79</v>
+        <v>1912.48</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2769,7 +2772,7 @@
         <v>162</v>
       </c>
       <c r="B161">
-        <v>1600.31</v>
+        <v>1913.4</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2777,7 +2780,7 @@
         <v>163</v>
       </c>
       <c r="B162">
-        <v>1601.05</v>
+        <v>1914.32</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2785,7 +2788,7 @@
         <v>164</v>
       </c>
       <c r="B163">
-        <v>1601.79</v>
+        <v>1915.08</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2793,7 +2796,7 @@
         <v>165</v>
       </c>
       <c r="B164">
-        <v>1602.54</v>
+        <v>1915.84</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2801,7 +2804,7 @@
         <v>166</v>
       </c>
       <c r="B165">
-        <v>1603.28</v>
+        <v>1916.6</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2809,7 +2812,7 @@
         <v>167</v>
       </c>
       <c r="B166">
-        <v>1604.02</v>
+        <v>1917.37</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2817,7 +2820,7 @@
         <v>168</v>
       </c>
       <c r="B167">
-        <v>1604.77</v>
+        <v>1918.13</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2825,7 +2828,7 @@
         <v>169</v>
       </c>
       <c r="B168">
-        <v>1605.51</v>
+        <v>1918.89</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2833,7 +2836,7 @@
         <v>170</v>
       </c>
       <c r="B169">
-        <v>1606.25</v>
+        <v>1919.66</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2841,7 +2844,7 @@
         <v>171</v>
       </c>
       <c r="B170">
-        <v>1607</v>
+        <v>1920.42</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2849,7 +2852,7 @@
         <v>172</v>
       </c>
       <c r="B171">
-        <v>1607.74</v>
+        <v>1921.18</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2857,7 +2860,7 @@
         <v>173</v>
       </c>
       <c r="B172">
-        <v>1608.49</v>
+        <v>1921.95</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2865,7 +2868,7 @@
         <v>174</v>
       </c>
       <c r="B173">
-        <v>1609.23</v>
+        <v>1922.71</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2873,7 +2876,7 @@
         <v>175</v>
       </c>
       <c r="B174">
-        <v>1609.98</v>
+        <v>1923.48</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2881,7 +2884,7 @@
         <v>176</v>
       </c>
       <c r="B175">
-        <v>1610.73</v>
+        <v>1924.24</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2889,7 +2892,7 @@
         <v>177</v>
       </c>
       <c r="B176">
-        <v>1611.47</v>
+        <v>1925.01</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2897,7 +2900,7 @@
         <v>178</v>
       </c>
       <c r="B177">
-        <v>1612.22</v>
+        <v>1925.77</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2905,7 +2908,7 @@
         <v>179</v>
       </c>
       <c r="B178">
-        <v>1612.97</v>
+        <v>1926.54</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2913,7 +2916,7 @@
         <v>180</v>
       </c>
       <c r="B179">
-        <v>1613.72</v>
+        <v>1927.3</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2921,7 +2924,7 @@
         <v>181</v>
       </c>
       <c r="B180">
-        <v>1614.46</v>
+        <v>1928.07</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2929,7 +2932,7 @@
         <v>182</v>
       </c>
       <c r="B181">
-        <v>1615.21</v>
+        <v>1928.84</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2937,7 +2940,7 @@
         <v>183</v>
       </c>
       <c r="B182">
-        <v>1615.96</v>
+        <v>1929.6</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2945,7 +2948,7 @@
         <v>184</v>
       </c>
       <c r="B183">
-        <v>1616.71</v>
+        <v>1930.37</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2953,7 +2956,7 @@
         <v>185</v>
       </c>
       <c r="B184">
-        <v>1617.46</v>
+        <v>1931.14</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2961,7 +2964,7 @@
         <v>186</v>
       </c>
       <c r="B185">
-        <v>1618.21</v>
+        <v>1931.91</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2969,7 +2972,7 @@
         <v>187</v>
       </c>
       <c r="B186">
-        <v>1618.96</v>
+        <v>1932.68</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2977,7 +2980,7 @@
         <v>188</v>
       </c>
       <c r="B187">
-        <v>1619.71</v>
+        <v>1933.44</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2985,7 +2988,7 @@
         <v>189</v>
       </c>
       <c r="B188">
-        <v>1620.46</v>
+        <v>1934.21</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2993,7 +2996,7 @@
         <v>190</v>
       </c>
       <c r="B189">
-        <v>1621.21</v>
+        <v>1934.98</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3001,7 +3004,7 @@
         <v>191</v>
       </c>
       <c r="B190">
-        <v>1621.96</v>
+        <v>1935.75</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3009,7 +3012,7 @@
         <v>192</v>
       </c>
       <c r="B191">
-        <v>1622.71</v>
+        <v>1936.52</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3017,7 +3020,7 @@
         <v>193</v>
       </c>
       <c r="B192">
-        <v>1623.54</v>
+        <v>1937.29</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3025,7 +3028,7 @@
         <v>194</v>
       </c>
       <c r="B193">
-        <v>1624.37</v>
+        <v>1938.1</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3033,7 +3036,7 @@
         <v>195</v>
       </c>
       <c r="B194">
-        <v>1625.2</v>
+        <v>1938.91</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3041,7 +3044,7 @@
         <v>196</v>
       </c>
       <c r="B195">
-        <v>1626.04</v>
+        <v>1939.71</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3049,7 +3052,7 @@
         <v>197</v>
       </c>
       <c r="B196">
-        <v>1626.87</v>
+        <v>1940.52</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3057,7 +3060,7 @@
         <v>198</v>
       </c>
       <c r="B197">
-        <v>1627.7</v>
+        <v>1941.33</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3065,7 +3068,7 @@
         <v>199</v>
       </c>
       <c r="B198">
-        <v>1628.54</v>
+        <v>1942.14</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3073,7 +3076,7 @@
         <v>200</v>
       </c>
       <c r="B199">
-        <v>1629.37</v>
+        <v>1942.95</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3081,7 +3084,7 @@
         <v>201</v>
       </c>
       <c r="B200">
-        <v>1630.21</v>
+        <v>1943.76</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3089,7 +3092,7 @@
         <v>202</v>
       </c>
       <c r="B201">
-        <v>1631.04</v>
+        <v>1944.57</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3097,7 +3100,7 @@
         <v>203</v>
       </c>
       <c r="B202">
-        <v>1631.88</v>
+        <v>1945.38</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3105,7 +3108,7 @@
         <v>204</v>
       </c>
       <c r="B203">
-        <v>1632.71</v>
+        <v>1946.19</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3113,7 +3116,7 @@
         <v>205</v>
       </c>
       <c r="B204">
-        <v>1633.55</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3121,7 +3124,7 @@
         <v>206</v>
       </c>
       <c r="B205">
-        <v>1634.38</v>
+        <v>1947.81</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3129,7 +3132,7 @@
         <v>207</v>
       </c>
       <c r="B206">
-        <v>1635.22</v>
+        <v>1948.62</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3137,7 +3140,7 @@
         <v>208</v>
       </c>
       <c r="B207">
-        <v>1636.06</v>
+        <v>1949.44</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3145,7 +3148,7 @@
         <v>209</v>
       </c>
       <c r="B208">
-        <v>1636.9</v>
+        <v>1950.25</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3153,7 +3156,7 @@
         <v>210</v>
       </c>
       <c r="B209">
-        <v>1637.74</v>
+        <v>1951.06</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3161,7 +3164,7 @@
         <v>211</v>
       </c>
       <c r="B210">
-        <v>1638.57</v>
+        <v>1951.87</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3169,7 +3172,7 @@
         <v>212</v>
       </c>
       <c r="B211">
-        <v>1639.41</v>
+        <v>1952.69</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3177,7 +3180,7 @@
         <v>213</v>
       </c>
       <c r="B212">
-        <v>1640.25</v>
+        <v>1953.5</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3185,7 +3188,7 @@
         <v>214</v>
       </c>
       <c r="B213">
-        <v>1641.09</v>
+        <v>1954.32</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3193,7 +3196,7 @@
         <v>215</v>
       </c>
       <c r="B214">
-        <v>1641.93</v>
+        <v>1955.13</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3201,7 +3204,7 @@
         <v>216</v>
       </c>
       <c r="B215">
-        <v>1642.77</v>
+        <v>1955.94</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3209,7 +3212,7 @@
         <v>217</v>
       </c>
       <c r="B216">
-        <v>1643.62</v>
+        <v>1956.76</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3217,7 +3220,7 @@
         <v>218</v>
       </c>
       <c r="B217">
-        <v>1644.46</v>
+        <v>1957.57</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3225,7 +3228,7 @@
         <v>219</v>
       </c>
       <c r="B218">
-        <v>1645.3</v>
+        <v>1958.39</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3233,7 +3236,7 @@
         <v>220</v>
       </c>
       <c r="B219">
-        <v>1646.14</v>
+        <v>1959.21</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3241,7 +3244,7 @@
         <v>221</v>
       </c>
       <c r="B220">
-        <v>1646.99</v>
+        <v>1960.02</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3249,7 +3252,7 @@
         <v>222</v>
       </c>
       <c r="B221">
-        <v>1647.83</v>
+        <v>1960.84</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3257,7 +3260,7 @@
         <v>223</v>
       </c>
       <c r="B222">
-        <v>1648.67</v>
+        <v>1961.66</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3265,7 +3268,7 @@
         <v>224</v>
       </c>
       <c r="B223">
-        <v>1649.67</v>
+        <v>1962.47</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3273,7 +3276,7 @@
         <v>225</v>
       </c>
       <c r="B224">
-        <v>1650.67</v>
+        <v>1963.04</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3281,7 +3284,7 @@
         <v>226</v>
       </c>
       <c r="B225">
-        <v>1651.68</v>
+        <v>1963.6</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3289,7 +3292,7 @@
         <v>227</v>
       </c>
       <c r="B226">
-        <v>1652.68</v>
+        <v>1964.17</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3297,7 +3300,7 @@
         <v>228</v>
       </c>
       <c r="B227">
-        <v>1653.68</v>
+        <v>1964.74</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3305,7 +3308,7 @@
         <v>229</v>
       </c>
       <c r="B228">
-        <v>1654.69</v>
+        <v>1965.31</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3313,7 +3316,7 @@
         <v>230</v>
       </c>
       <c r="B229">
-        <v>1655.69</v>
+        <v>1965.88</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3321,7 +3324,7 @@
         <v>231</v>
       </c>
       <c r="B230">
-        <v>1656.7</v>
+        <v>1966.44</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3329,7 +3332,7 @@
         <v>232</v>
       </c>
       <c r="B231">
-        <v>1657.7</v>
+        <v>1967.01</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3337,7 +3340,7 @@
         <v>233</v>
       </c>
       <c r="B232">
-        <v>1658.71</v>
+        <v>1967.58</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3345,7 +3348,7 @@
         <v>234</v>
       </c>
       <c r="B233">
-        <v>1659.72</v>
+        <v>1968.15</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3353,7 +3356,7 @@
         <v>235</v>
       </c>
       <c r="B234">
-        <v>1660.73</v>
+        <v>1968.72</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3361,7 +3364,7 @@
         <v>236</v>
       </c>
       <c r="B235">
-        <v>1661.73</v>
+        <v>1969.29</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3369,7 +3372,7 @@
         <v>237</v>
       </c>
       <c r="B236">
-        <v>1662.74</v>
+        <v>1969.86</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3377,7 +3380,7 @@
         <v>238</v>
       </c>
       <c r="B237">
-        <v>1663.75</v>
+        <v>1970.43</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3385,7 +3388,7 @@
         <v>239</v>
       </c>
       <c r="B238">
-        <v>1664.76</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3393,7 +3396,7 @@
         <v>240</v>
       </c>
       <c r="B239">
-        <v>1665.78</v>
+        <v>1971.57</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3401,7 +3404,7 @@
         <v>241</v>
       </c>
       <c r="B240">
-        <v>1666.79</v>
+        <v>1972.14</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3409,7 +3412,7 @@
         <v>242</v>
       </c>
       <c r="B241">
-        <v>1667.8</v>
+        <v>1972.71</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3417,7 +3420,7 @@
         <v>243</v>
       </c>
       <c r="B242">
-        <v>1668.81</v>
+        <v>1973.28</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3425,7 +3428,7 @@
         <v>244</v>
       </c>
       <c r="B243">
-        <v>1669.83</v>
+        <v>1973.85</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3433,7 +3436,7 @@
         <v>245</v>
       </c>
       <c r="B244">
-        <v>1670.84</v>
+        <v>1974.42</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3441,7 +3444,7 @@
         <v>246</v>
       </c>
       <c r="B245">
-        <v>1671.85</v>
+        <v>1974.99</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3449,7 +3452,7 @@
         <v>247</v>
       </c>
       <c r="B246">
-        <v>1672.87</v>
+        <v>1975.56</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3457,7 +3460,7 @@
         <v>248</v>
       </c>
       <c r="B247">
-        <v>1673.89</v>
+        <v>1976.13</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3465,7 +3468,7 @@
         <v>249</v>
       </c>
       <c r="B248">
-        <v>1674.9</v>
+        <v>1976.7</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3473,7 +3476,7 @@
         <v>250</v>
       </c>
       <c r="B249">
-        <v>1675.92</v>
+        <v>1977.27</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3481,7 +3484,7 @@
         <v>251</v>
       </c>
       <c r="B250">
-        <v>1676.94</v>
+        <v>1977.84</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3489,7 +3492,7 @@
         <v>252</v>
       </c>
       <c r="B251">
-        <v>1677.96</v>
+        <v>1978.42</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3497,7 +3500,7 @@
         <v>253</v>
       </c>
       <c r="B252">
-        <v>1678.98</v>
+        <v>1978.99</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3505,7 +3508,7 @@
         <v>254</v>
       </c>
       <c r="B253">
-        <v>1679.99</v>
+        <v>1979.56</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3513,7 +3516,7 @@
         <v>255</v>
       </c>
       <c r="B254">
-        <v>1681.48</v>
+        <v>1980.13</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3521,7 +3524,7 @@
         <v>256</v>
       </c>
       <c r="B255">
-        <v>1682.98</v>
+        <v>1980.33</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3529,7 +3532,7 @@
         <v>257</v>
       </c>
       <c r="B256">
-        <v>1684.47</v>
+        <v>1980.53</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3537,7 +3540,7 @@
         <v>258</v>
       </c>
       <c r="B257">
-        <v>1685.97</v>
+        <v>1980.72</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3545,7 +3548,7 @@
         <v>259</v>
       </c>
       <c r="B258">
-        <v>1687.47</v>
+        <v>1980.92</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3553,7 +3556,7 @@
         <v>260</v>
       </c>
       <c r="B259">
-        <v>1688.97</v>
+        <v>1981.12</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3561,7 +3564,7 @@
         <v>261</v>
       </c>
       <c r="B260">
-        <v>1690.47</v>
+        <v>1981.32</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3569,7 +3572,7 @@
         <v>262</v>
       </c>
       <c r="B261">
-        <v>1691.97</v>
+        <v>1981.51</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3577,7 +3580,7 @@
         <v>263</v>
       </c>
       <c r="B262">
-        <v>1693.47</v>
+        <v>1981.71</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3585,7 +3588,7 @@
         <v>264</v>
       </c>
       <c r="B263">
-        <v>1694.98</v>
+        <v>1981.91</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3593,7 +3596,7 @@
         <v>265</v>
       </c>
       <c r="B264">
-        <v>1696.48</v>
+        <v>1982.11</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3601,7 +3604,7 @@
         <v>266</v>
       </c>
       <c r="B265">
-        <v>1697.99</v>
+        <v>1982.31</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3609,7 +3612,7 @@
         <v>267</v>
       </c>
       <c r="B266">
-        <v>1699.5</v>
+        <v>1982.5</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3617,7 +3620,7 @@
         <v>268</v>
       </c>
       <c r="B267">
-        <v>1701.01</v>
+        <v>1982.7</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3625,7 +3628,7 @@
         <v>269</v>
       </c>
       <c r="B268">
-        <v>1702.52</v>
+        <v>1982.9</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3633,7 +3636,7 @@
         <v>270</v>
       </c>
       <c r="B269">
-        <v>1704.03</v>
+        <v>1983.1</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3641,7 +3644,7 @@
         <v>271</v>
       </c>
       <c r="B270">
-        <v>1705.55</v>
+        <v>1983.3</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3649,7 +3652,7 @@
         <v>272</v>
       </c>
       <c r="B271">
-        <v>1707.06</v>
+        <v>1983.49</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3657,7 +3660,7 @@
         <v>273</v>
       </c>
       <c r="B272">
-        <v>1708.58</v>
+        <v>1983.69</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3665,7 +3668,7 @@
         <v>274</v>
       </c>
       <c r="B273">
-        <v>1710.1</v>
+        <v>1983.89</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3673,7 +3676,7 @@
         <v>275</v>
       </c>
       <c r="B274">
-        <v>1711.61</v>
+        <v>1984.09</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3681,7 +3684,7 @@
         <v>276</v>
       </c>
       <c r="B275">
-        <v>1713.14</v>
+        <v>1984.29</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -3689,7 +3692,7 @@
         <v>277</v>
       </c>
       <c r="B276">
-        <v>1714.66</v>
+        <v>1984.48</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -3697,7 +3700,7 @@
         <v>278</v>
       </c>
       <c r="B277">
-        <v>1716.18</v>
+        <v>1984.68</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3705,7 +3708,7 @@
         <v>279</v>
       </c>
       <c r="B278">
-        <v>1717.71</v>
+        <v>1984.88</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3713,7 +3716,7 @@
         <v>280</v>
       </c>
       <c r="B279">
-        <v>1719.23</v>
+        <v>1985.08</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -3721,7 +3724,7 @@
         <v>281</v>
       </c>
       <c r="B280">
-        <v>1720.76</v>
+        <v>1985.28</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -3729,7 +3732,7 @@
         <v>282</v>
       </c>
       <c r="B281">
-        <v>1722.29</v>
+        <v>1985.48</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -3737,7 +3740,7 @@
         <v>283</v>
       </c>
       <c r="B282">
-        <v>1723.82</v>
+        <v>1985.67</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -3745,7 +3748,7 @@
         <v>284</v>
       </c>
       <c r="B283">
-        <v>1725.35</v>
+        <v>1985.87</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -3753,7 +3756,7 @@
         <v>285</v>
       </c>
       <c r="B284">
-        <v>1726.62</v>
+        <v>1986.07</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -3761,7 +3764,7 @@
         <v>286</v>
       </c>
       <c r="B285">
-        <v>1727.88</v>
+        <v>1987.9</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -3769,7 +3772,7 @@
         <v>287</v>
       </c>
       <c r="B286">
-        <v>1729.15</v>
+        <v>1989.74</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -3777,7 +3780,7 @@
         <v>288</v>
       </c>
       <c r="B287">
-        <v>1730.42</v>
+        <v>1991.57</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -3785,7 +3788,7 @@
         <v>289</v>
       </c>
       <c r="B288">
-        <v>1731.69</v>
+        <v>1993.41</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -3793,7 +3796,7 @@
         <v>290</v>
       </c>
       <c r="B289">
-        <v>1732.96</v>
+        <v>1995.25</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -3801,7 +3804,7 @@
         <v>291</v>
       </c>
       <c r="B290">
-        <v>1734.23</v>
+        <v>1997.09</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -3809,7 +3812,7 @@
         <v>292</v>
       </c>
       <c r="B291">
-        <v>1735.5</v>
+        <v>1998.93</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -3817,7 +3820,7 @@
         <v>293</v>
       </c>
       <c r="B292">
-        <v>1736.78</v>
+        <v>2000.78</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -3825,7 +3828,7 @@
         <v>294</v>
       </c>
       <c r="B293">
-        <v>1738.05</v>
+        <v>2002.62</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -3833,7 +3836,7 @@
         <v>295</v>
       </c>
       <c r="B294">
-        <v>1739.33</v>
+        <v>2004.47</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -3841,7 +3844,7 @@
         <v>296</v>
       </c>
       <c r="B295">
-        <v>1740.6</v>
+        <v>2006.32</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -3849,7 +3852,7 @@
         <v>297</v>
       </c>
       <c r="B296">
-        <v>1741.88</v>
+        <v>2008.17</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -3857,7 +3860,7 @@
         <v>298</v>
       </c>
       <c r="B297">
-        <v>1743.16</v>
+        <v>2010.02</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -3865,7 +3868,7 @@
         <v>299</v>
       </c>
       <c r="B298">
-        <v>1744.44</v>
+        <v>2011.88</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -3873,7 +3876,7 @@
         <v>300</v>
       </c>
       <c r="B299">
-        <v>1745.72</v>
+        <v>2013.73</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -3881,7 +3884,7 @@
         <v>301</v>
       </c>
       <c r="B300">
-        <v>1747</v>
+        <v>2015.59</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -3889,7 +3892,7 @@
         <v>302</v>
       </c>
       <c r="B301">
-        <v>1748.28</v>
+        <v>2017.45</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -3897,7 +3900,7 @@
         <v>303</v>
       </c>
       <c r="B302">
-        <v>1749.56</v>
+        <v>2019.31</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -3905,7 +3908,7 @@
         <v>304</v>
       </c>
       <c r="B303">
-        <v>1750.85</v>
+        <v>2021.18</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -3913,7 +3916,7 @@
         <v>305</v>
       </c>
       <c r="B304">
-        <v>1752.13</v>
+        <v>2023.04</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -3921,7 +3924,7 @@
         <v>306</v>
       </c>
       <c r="B305">
-        <v>1753.42</v>
+        <v>2024.91</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -3929,7 +3932,7 @@
         <v>307</v>
       </c>
       <c r="B306">
-        <v>1754.71</v>
+        <v>2026.77</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -3937,7 +3940,7 @@
         <v>308</v>
       </c>
       <c r="B307">
-        <v>1755.99</v>
+        <v>2028.64</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -3945,7 +3948,7 @@
         <v>309</v>
       </c>
       <c r="B308">
-        <v>1757.28</v>
+        <v>2030.52</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -3953,7 +3956,7 @@
         <v>310</v>
       </c>
       <c r="B309">
-        <v>1758.57</v>
+        <v>2032.39</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -3961,7 +3964,7 @@
         <v>311</v>
       </c>
       <c r="B310">
-        <v>1759.86</v>
+        <v>2034.26</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -3969,7 +3972,7 @@
         <v>312</v>
       </c>
       <c r="B311">
-        <v>1761.15</v>
+        <v>2036.14</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -3977,7 +3980,7 @@
         <v>313</v>
       </c>
       <c r="B312">
-        <v>1762.45</v>
+        <v>2038.02</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -3985,7 +3988,7 @@
         <v>314</v>
       </c>
       <c r="B313">
-        <v>1763.74</v>
+        <v>2039.9</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -3993,7 +3996,7 @@
         <v>315</v>
       </c>
       <c r="B314">
-        <v>1765.03</v>
+        <v>2041.78</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -4001,7 +4004,7 @@
         <v>316</v>
       </c>
       <c r="B315">
-        <v>1766.43</v>
+        <v>2043.67</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -4009,7 +4012,7 @@
         <v>317</v>
       </c>
       <c r="B316">
-        <v>1767.82</v>
+        <v>2049.05</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -4017,7 +4020,7 @@
         <v>318</v>
       </c>
       <c r="B317">
-        <v>1769.22</v>
+        <v>2054.44</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -4025,7 +4028,7 @@
         <v>319</v>
       </c>
       <c r="B318">
-        <v>1770.62</v>
+        <v>2059.84</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -4033,7 +4036,7 @@
         <v>320</v>
       </c>
       <c r="B319">
-        <v>1772.02</v>
+        <v>2065.26</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -4041,7 +4044,7 @@
         <v>321</v>
       </c>
       <c r="B320">
-        <v>1773.42</v>
+        <v>2070.69</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -4049,7 +4052,7 @@
         <v>322</v>
       </c>
       <c r="B321">
-        <v>1774.82</v>
+        <v>2076.14</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -4057,7 +4060,7 @@
         <v>323</v>
       </c>
       <c r="B322">
-        <v>1776.23</v>
+        <v>2081.6</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -4065,7 +4068,7 @@
         <v>324</v>
       </c>
       <c r="B323">
-        <v>1777.63</v>
+        <v>2087.07</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -4073,7 +4076,7 @@
         <v>325</v>
       </c>
       <c r="B324">
-        <v>1779.04</v>
+        <v>2092.56</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -4081,7 +4084,7 @@
         <v>326</v>
       </c>
       <c r="B325">
-        <v>1780.45</v>
+        <v>2098.07</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -4089,7 +4092,7 @@
         <v>327</v>
       </c>
       <c r="B326">
-        <v>1781.85</v>
+        <v>2103.59</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4097,7 +4100,7 @@
         <v>328</v>
       </c>
       <c r="B327">
-        <v>1783.26</v>
+        <v>2109.12</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -4105,7 +4108,7 @@
         <v>329</v>
       </c>
       <c r="B328">
-        <v>1784.67</v>
+        <v>2114.67</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -4113,7 +4116,7 @@
         <v>330</v>
       </c>
       <c r="B329">
-        <v>1786.08</v>
+        <v>2120.23</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -4121,7 +4124,7 @@
         <v>331</v>
       </c>
       <c r="B330">
-        <v>1787.5</v>
+        <v>2125.81</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -4129,7 +4132,7 @@
         <v>332</v>
       </c>
       <c r="B331">
-        <v>1788.91</v>
+        <v>2131.4</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -4137,7 +4140,7 @@
         <v>333</v>
       </c>
       <c r="B332">
-        <v>1790.33</v>
+        <v>2137.01</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -4145,7 +4148,7 @@
         <v>334</v>
       </c>
       <c r="B333">
-        <v>1791.74</v>
+        <v>2142.63</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -4153,7 +4156,7 @@
         <v>335</v>
       </c>
       <c r="B334">
-        <v>1793.16</v>
+        <v>2148.27</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -4161,7 +4164,7 @@
         <v>336</v>
       </c>
       <c r="B335">
-        <v>1794.58</v>
+        <v>2153.92</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -4169,7 +4172,7 @@
         <v>337</v>
       </c>
       <c r="B336">
-        <v>1796</v>
+        <v>2159.58</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -4177,7 +4180,7 @@
         <v>338</v>
       </c>
       <c r="B337">
-        <v>1797.42</v>
+        <v>2165.26</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -4185,7 +4188,7 @@
         <v>339</v>
       </c>
       <c r="B338">
-        <v>1798.84</v>
+        <v>2170.96</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -4193,7 +4196,7 @@
         <v>340</v>
       </c>
       <c r="B339">
-        <v>1800.26</v>
+        <v>2176.67</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -4201,7 +4204,7 @@
         <v>341</v>
       </c>
       <c r="B340">
-        <v>1801.68</v>
+        <v>2182.4</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -4209,7 +4212,7 @@
         <v>342</v>
       </c>
       <c r="B341">
-        <v>1803.11</v>
+        <v>2188.14</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -4217,7 +4220,7 @@
         <v>343</v>
       </c>
       <c r="B342">
-        <v>1804.54</v>
+        <v>2193.89</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -4225,7 +4228,7 @@
         <v>344</v>
       </c>
       <c r="B343">
-        <v>1805.96</v>
+        <v>2199.66</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4233,7 +4236,7 @@
         <v>345</v>
       </c>
       <c r="B344">
-        <v>1807.39</v>
+        <v>2205.45</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -4241,7 +4244,7 @@
         <v>346</v>
       </c>
       <c r="B345">
-        <v>1808.14</v>
+        <v>2211.25</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -4249,7 +4252,7 @@
         <v>347</v>
       </c>
       <c r="B346">
-        <v>1808.9</v>
+        <v>2212.1</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -4257,7 +4260,7 @@
         <v>348</v>
       </c>
       <c r="B347">
-        <v>1809.65</v>
+        <v>2212.95</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -4265,7 +4268,7 @@
         <v>349</v>
       </c>
       <c r="B348">
-        <v>1810.4</v>
+        <v>2213.8</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -4273,7 +4276,7 @@
         <v>350</v>
       </c>
       <c r="B349">
-        <v>1811.16</v>
+        <v>2214.66</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -4281,7 +4284,7 @@
         <v>351</v>
       </c>
       <c r="B350">
-        <v>1811.91</v>
+        <v>2215.51</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -4289,7 +4292,7 @@
         <v>352</v>
       </c>
       <c r="B351">
-        <v>1812.67</v>
+        <v>2216.36</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -4297,7 +4300,7 @@
         <v>353</v>
       </c>
       <c r="B352">
-        <v>1813.42</v>
+        <v>2217.21</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -4305,7 +4308,7 @@
         <v>354</v>
       </c>
       <c r="B353">
-        <v>1814.18</v>
+        <v>2218.07</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -4313,7 +4316,7 @@
         <v>355</v>
       </c>
       <c r="B354">
-        <v>1814.94</v>
+        <v>2218.92</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -4321,7 +4324,7 @@
         <v>356</v>
       </c>
       <c r="B355">
-        <v>1815.69</v>
+        <v>2219.78</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -4329,7 +4332,7 @@
         <v>357</v>
       </c>
       <c r="B356">
-        <v>1816.45</v>
+        <v>2220.63</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -4337,7 +4340,7 @@
         <v>358</v>
       </c>
       <c r="B357">
-        <v>1817.21</v>
+        <v>2221.48</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -4345,7 +4348,7 @@
         <v>359</v>
       </c>
       <c r="B358">
-        <v>1817.96</v>
+        <v>2222.34</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -4353,7 +4356,7 @@
         <v>360</v>
       </c>
       <c r="B359">
-        <v>1818.72</v>
+        <v>2223.19</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -4361,7 +4364,7 @@
         <v>361</v>
       </c>
       <c r="B360">
-        <v>1819.48</v>
+        <v>2224.05</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -4369,7 +4372,7 @@
         <v>362</v>
       </c>
       <c r="B361">
-        <v>1820.24</v>
+        <v>2224.91</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -4377,7 +4380,7 @@
         <v>363</v>
       </c>
       <c r="B362">
-        <v>1821</v>
+        <v>2225.76</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -4385,7 +4388,7 @@
         <v>364</v>
       </c>
       <c r="B363">
-        <v>1821.75</v>
+        <v>2226.62</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -4393,7 +4396,7 @@
         <v>365</v>
       </c>
       <c r="B364">
-        <v>1822.51</v>
+        <v>2227.48</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -4401,7 +4404,7 @@
         <v>366</v>
       </c>
       <c r="B365">
-        <v>1823.27</v>
+        <v>2228.33</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -4409,7 +4412,15 @@
         <v>367</v>
       </c>
       <c r="B366">
-        <v>1824.03</v>
+        <v>2229.19</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" t="s">
+        <v>368</v>
+      </c>
+      <c r="B367">
+        <v>2230.05</v>
       </c>
     </row>
   </sheetData>
